--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BK17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -3136,7 +3136,7 @@
         <v>0.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU13" t="n">
         <v>0.97</v>
@@ -3594,6 +3594,412 @@
       </c>
       <c r="BK15" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5239068</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Lahti</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>12</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V16" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5239067</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['45+2', '65']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK17"/>
+  <dimension ref="A1:BK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -1309,7 +1309,7 @@
         <v>0.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU14" t="n">
         <v>2.23</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -4000,6 +4000,615 @@
       </c>
       <c r="BK17" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5239069</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45039.41666666666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>7</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>9</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V18" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5239070</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45039.52083333334</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5239071</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45040.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>11</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK20"/>
+  <dimension ref="A1:BK24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT5" t="n">
         <v>1.67</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU14" t="n">
         <v>2.23</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT19" t="n">
         <v>1.67</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU20" t="n">
         <v>1.1</v>
@@ -4609,6 +4609,818 @@
       </c>
       <c r="BK20" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5239073</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45045.375</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>['38', '42']</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>14</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5239076</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45045.45833333334</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>['9', '31', '73']</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>8</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5239074</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45045.45833333334</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>9</v>
+      </c>
+      <c r="S23" t="n">
+        <v>13</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5239075</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45045.45833333334</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -4796,22 +4796,22 @@
         <v>2.7</v>
       </c>
       <c r="BF21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BG21" t="n">
         <v>3</v>
       </c>
       <c r="BH21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -4879,10 +4879,10 @@
         <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T22" t="n">
         <v>2.87</v>
@@ -5008,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
       </c>
       <c r="BK22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -5205,19 +5205,19 @@
         <v>2</v>
       </c>
       <c r="BG23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH23" t="n">
         <v>8</v>
       </c>
       <c r="BI23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ23" t="n">
         <v>10</v>
       </c>
       <c r="BK23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -5285,10 +5285,10 @@
         <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T24" t="n">
         <v>2.6</v>
@@ -5405,22 +5405,22 @@
         <v>2.7</v>
       </c>
       <c r="BF24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG24" t="n">
         <v>2</v>
       </c>
       <c r="BH24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ24" t="n">
         <v>6</v>
       </c>
       <c r="BK24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK24"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5</v>
@@ -2121,7 +2121,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>1.45</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT13" t="n">
         <v>1.67</v>
@@ -4796,22 +4796,22 @@
         <v>2.7</v>
       </c>
       <c r="BF21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG21" t="n">
         <v>3</v>
       </c>
       <c r="BH21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -5421,6 +5421,209 @@
       </c>
       <c r="BK24" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5239077</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45046.41666666666</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>['52', '58']</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0.87</v>
@@ -3136,7 +3136,7 @@
         <v>0.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0.97</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT14" t="n">
         <v>1.25</v>
@@ -3742,10 +3742,10 @@
         <v>2</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU16" t="n">
         <v>1.33</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
         <v>0.5</v>
@@ -4354,7 +4354,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>1.59</v>
@@ -4554,7 +4554,7 @@
         <v>1.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AT20" t="n">
         <v>1.25</v>
@@ -5163,7 +5163,7 @@
         <v>1.33</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AT23" t="n">
         <v>1.25</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
@@ -5624,6 +5624,1224 @@
       </c>
       <c r="BK25" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5239082</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45051.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Lahti</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['36', '44', '81']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V26" t="n">
+        <v>6</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5239081</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45051.5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['1', '49', '60', '75']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['20', '39']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V27" t="n">
+        <v>4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5239080</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45051.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>['36', '90+2']</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>10</v>
+      </c>
+      <c r="R28" t="n">
+        <v>10</v>
+      </c>
+      <c r="S28" t="n">
+        <v>20</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5239083</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45051.5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['1', '53']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>13</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5239078</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45051.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['53', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5239079</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45051.51041666666</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['18', '80']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>6</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>11</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -5891,13 +5891,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
         <v>6</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T27" t="n">
         <v>2.45</v>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.33</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU8" t="n">
         <v>1.45</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
@@ -2933,7 +2933,7 @@
         <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU12" t="n">
         <v>0.87</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>1.41</v>
@@ -5572,7 +5572,7 @@
         <v>0.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU25" t="n">
         <v>1.35</v>
@@ -5772,7 +5772,7 @@
         <v>1.67</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT26" t="n">
         <v>1.25</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU31" t="n">
         <v>1.67</v>
@@ -6842,6 +6842,615 @@
       </c>
       <c r="BK31" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>5239086</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45055.5</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['52', '60']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>11</v>
+      </c>
+      <c r="S32" t="n">
+        <v>12</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5239085</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45055.5</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>['30', '43']</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>11</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>5239084</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45055.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>['58', '78', '90+2']</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['3', '23', '84']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -6906,13 +6906,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
         <v>11</v>
       </c>
       <c r="S32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="T32" t="n">
         <v>3.5</v>
@@ -7032,19 +7032,19 @@
         <v>3</v>
       </c>
       <c r="BG32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI32" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BJ32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK32" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -7235,19 +7235,19 @@
         <v>2</v>
       </c>
       <c r="BG33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK33" t="n">
         <v>7</v>
-      </c>
-      <c r="BI33" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>9</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -7312,13 +7312,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T34" t="n">
         <v>3.9</v>
@@ -7435,22 +7435,22 @@
         <v>2.45</v>
       </c>
       <c r="BF34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BH34" t="n">
         <v>2</v>
       </c>
       <c r="BI34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK34" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK34"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
         <v>1.45</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU24" t="n">
         <v>1.11</v>
@@ -5572,7 +5572,7 @@
         <v>0.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU25" t="n">
         <v>1.35</v>
@@ -5772,7 +5772,7 @@
         <v>1.67</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
         <v>1.25</v>
@@ -5978,7 +5978,7 @@
         <v>1.67</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU27" t="n">
         <v>1.05</v>
@@ -6906,13 +6906,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>11</v>
       </c>
       <c r="S32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T32" t="n">
         <v>3.5</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AU32" t="n">
         <v>0.5600000000000001</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7451,6 +7451,412 @@
       </c>
       <c r="BK34" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5239087</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45059.33333333334</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Lahti</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>8</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>12</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5239088</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45059.375</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK36"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="n">
         <v>0.33</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT7" t="n">
         <v>1.25</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>1.25</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT16" t="n">
         <v>1.25</v>
@@ -4151,7 +4151,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU18" t="n">
         <v>1.67</v>
@@ -4351,7 +4351,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT19" t="n">
         <v>2</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>1.41</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>2.5</v>
@@ -6178,10 +6178,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU28" t="n">
         <v>1.57</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>2.5</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU33" t="n">
         <v>1.65</v>
@@ -7515,13 +7515,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R35" t="n">
         <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T35" t="n">
         <v>2.66</v>
@@ -7638,7 +7638,7 @@
         <v>2.69</v>
       </c>
       <c r="BF35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG35" t="n">
         <v>2</v>
@@ -7650,7 +7650,7 @@
         <v>2</v>
       </c>
       <c r="BJ35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK35" t="n">
         <v>4</v>
@@ -7841,10 +7841,10 @@
         <v>3.2</v>
       </c>
       <c r="BF36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH36" t="n">
         <v>5</v>
@@ -7853,10 +7853,822 @@
         <v>2</v>
       </c>
       <c r="BJ36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>5239089</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F37" t="n">
         <v>7</v>
       </c>
-      <c r="BK36" t="n">
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
         <v>4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['54', '63', '83', '89']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6</v>
+      </c>
+      <c r="S37" t="n">
+        <v>11</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V37" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5239090</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['66', '79']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>6</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>7</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5239091</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>7</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V39" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5239092</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45059.52083333334</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['26', '64']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V40" t="n">
+        <v>3</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK40"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT2" t="n">
         <v>0.75</v>
@@ -1512,7 +1512,7 @@
         <v>1.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0.97</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT14" t="n">
         <v>1.25</v>
@@ -3745,7 +3745,7 @@
         <v>2.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>1.33</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT18" t="n">
         <v>0.33</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>0.99</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AT31" t="n">
         <v>1.33</v>
@@ -8669,6 +8669,209 @@
       </c>
       <c r="BK40" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>5239093</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45066.33333333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Lahti</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>['22', '45']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>6</v>
+      </c>
+      <c r="T41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
@@ -1918,7 +1918,7 @@
         <v>2.6</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>2.5</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT10" t="n">
         <v>0.75</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU12" t="n">
         <v>0.87</v>
@@ -3339,7 +3339,7 @@
         <v>1.8</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU14" t="n">
         <v>2.23</v>
@@ -3542,7 +3542,7 @@
         <v>2.6</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU15" t="n">
         <v>1.36</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>1.15</v>
@@ -4554,10 +4554,10 @@
         <v>1.5</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU20" t="n">
         <v>1.1</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU23" t="n">
         <v>0.8</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT24" t="n">
         <v>0.33</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>0.33</v>
@@ -6384,7 +6384,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU29" t="n">
         <v>0.92</v>
@@ -6584,7 +6584,7 @@
         <v>1.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT30" t="n">
         <v>2</v>
@@ -6790,7 +6790,7 @@
         <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU31" t="n">
         <v>1.67</v>
@@ -6990,7 +6990,7 @@
         <v>2</v>
       </c>
       <c r="AS32" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT32" t="n">
         <v>2.5</v>
@@ -7396,10 +7396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>1.33</v>
       </c>
       <c r="AU34" t="n">
         <v>1.16</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU38" t="n">
         <v>0.87</v>
@@ -8872,6 +8872,1021 @@
       </c>
       <c r="BK41" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5239094</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45067.41666666666</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>6</v>
+      </c>
+      <c r="T42" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>5239095</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45068.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['3', '13']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['11', '34']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>11</v>
+      </c>
+      <c r="S43" t="n">
+        <v>14</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>5239096</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45068.5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['31', '47', '64']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>5239097</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45068.5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>9</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>11</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5239098</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45068.5</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['44', '62']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>8</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7</v>
+      </c>
+      <c r="S46" t="n">
+        <v>15</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -9262,22 +9262,22 @@
         <v>3.2</v>
       </c>
       <c r="BF43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BH43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI43" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ43" t="n">
         <v>9</v>
       </c>
-      <c r="BJ43" t="n">
-        <v>5</v>
-      </c>
       <c r="BK43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -9465,22 +9465,22 @@
         <v>2.4</v>
       </c>
       <c r="BF44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK44" t="n">
         <v>5</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -9668,22 +9668,22 @@
         <v>2.75</v>
       </c>
       <c r="BF45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ45" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK45" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -9874,16 +9874,16 @@
         <v>3</v>
       </c>
       <c r="BG46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI46" t="n">
         <v>6</v>
       </c>
-      <c r="BI46" t="n">
+      <c r="BJ46" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>9</v>
       </c>
       <c r="BK46" t="n">
         <v>10</v>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>1.45</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT11" t="n">
         <v>2.33</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU12" t="n">
         <v>0.87</v>
@@ -3742,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>1.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>1.67</v>
@@ -4354,7 +4354,7 @@
         <v>2.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU19" t="n">
         <v>1.59</v>
@@ -4760,7 +4760,7 @@
         <v>2.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU21" t="n">
         <v>1.41</v>
@@ -5163,7 +5163,7 @@
         <v>1.33</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
         <v>1.6</v>
@@ -5369,7 +5369,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>1.11</v>
@@ -5572,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU25" t="n">
         <v>1.35</v>
@@ -5772,7 +5772,7 @@
         <v>1.67</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>1.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>1.05</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT28" t="n">
         <v>0.75</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT29" t="n">
         <v>0.33</v>
@@ -6587,7 +6587,7 @@
         <v>1.75</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1.11</v>
@@ -6790,7 +6790,7 @@
         <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.67</v>
@@ -6993,7 +6993,7 @@
         <v>0.75</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
         <v>0.5600000000000001</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU33" t="n">
         <v>1.65</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.16</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7802,10 +7802,10 @@
         <v>2.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AU36" t="n">
         <v>1.49</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.71</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU40" t="n">
         <v>1.18</v>
@@ -9023,7 +9023,7 @@
         <v>1.75</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AU42" t="n">
         <v>1.19</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT45" t="n">
         <v>0.33</v>
@@ -9887,6 +9887,1224 @@
       </c>
       <c r="BK46" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5239101</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45072.5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Ilves</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['75', '88']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>9</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>5239103</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45072.5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>6</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5239102</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45072.5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Inter Turku</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Haka</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['21', '53', '63']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>9</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6</v>
+      </c>
+      <c r="S49" t="n">
+        <v>15</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>5239100</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45072.5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Lahti</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Oulu</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['64', '75']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>6</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>7</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V50" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>5239099</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45072.5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>8</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Honka</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>KTP</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>8</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6</v>
+      </c>
+      <c r="S51" t="n">
+        <v>14</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V51" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>5239104</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Finland Veikkausliiga</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45073.52083333334</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Mariehamn</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>HJK</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>10</v>
+      </c>
+      <c r="S52" t="n">
+        <v>12</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,21 @@
     <t>['17']</t>
   </si>
   <si>
+    <t>['22', '53']</t>
+  </si>
+  <si>
+    <t>['10', '23', '49']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['44', '45+1', '53']</t>
+  </si>
+  <si>
+    <t>['11', '42']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -440,6 +455,12 @@
   </si>
   <si>
     <t>['31']</t>
+  </si>
+  <si>
+    <t>['81', '85']</t>
+  </si>
+  <si>
+    <t>['54', '62']</t>
   </si>
 </sst>
 </file>
@@ -801,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK52"/>
+  <dimension ref="A1:BK58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1045,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1132,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT2">
         <v>0.75</v>
@@ -1236,7 +1257,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1326,7 +1347,7 @@
         <v>2.6</v>
       </c>
       <c r="AT3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1427,7 +1448,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1809,7 +1830,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1896,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
         <v>2.2</v>
@@ -2087,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT7">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2278,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT8">
         <v>2</v>
@@ -2382,7 +2403,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2573,7 +2594,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2660,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT10">
         <v>0.75</v>
@@ -2854,7 +2875,7 @@
         <v>0.8</v>
       </c>
       <c r="AT11">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3146,7 +3167,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3337,7 +3358,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3424,10 +3445,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT14">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU14">
         <v>2.23</v>
@@ -3615,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT15">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU15">
         <v>1.36</v>
@@ -3910,7 +3931,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -3997,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU17">
         <v>1.15</v>
@@ -4188,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -4292,7 +4313,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4379,7 +4400,7 @@
         <v>2</v>
       </c>
       <c r="AS19">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT19">
         <v>2.2</v>
@@ -4483,7 +4504,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4573,7 +4594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU20">
         <v>1.1</v>
@@ -4761,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT21">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU21">
         <v>1.41</v>
@@ -4865,7 +4886,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -4952,10 +4973,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT22">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5146,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5334,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5438,7 +5459,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5820,7 +5841,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6011,7 +6032,7 @@
         <v>94</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6202,7 +6223,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6292,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="AT29">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU29">
         <v>0.92</v>
@@ -6393,7 +6414,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6480,7 +6501,7 @@
         <v>1.67</v>
       </c>
       <c r="AS30">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT30">
         <v>2.2</v>
@@ -6584,7 +6605,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6671,7 +6692,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT31">
         <v>1.2</v>
@@ -6775,7 +6796,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -6862,7 +6883,7 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT32">
         <v>2</v>
@@ -6966,7 +6987,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7056,7 +7077,7 @@
         <v>0.8</v>
       </c>
       <c r="AT33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
         <v>1.65</v>
@@ -7157,7 +7178,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7244,7 +7265,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT34">
         <v>1.2</v>
@@ -7730,7 +7751,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7817,7 +7838,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AT37">
         <v>0.75</v>
@@ -7921,7 +7942,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8008,10 +8029,10 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT38">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU38">
         <v>0.87</v>
@@ -8303,7 +8324,7 @@
         <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8393,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU40">
         <v>1.18</v>
@@ -8581,7 +8602,7 @@
         <v>1.25</v>
       </c>
       <c r="AS41">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -8685,7 +8706,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8772,7 +8793,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AT42">
         <v>1.2</v>
@@ -8876,7 +8897,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -8966,7 +8987,7 @@
         <v>1.5</v>
       </c>
       <c r="AT43">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU43">
         <v>1.23</v>
@@ -9067,7 +9088,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9154,10 +9175,10 @@
         <v>1.25</v>
       </c>
       <c r="AS44">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT44">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AU44">
         <v>1.19</v>
@@ -9258,7 +9279,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9345,10 +9366,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT45">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9449,7 +9470,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9536,10 +9557,10 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>1.19</v>
@@ -9640,7 +9661,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10109,10 +10130,10 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT49">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -10213,7 +10234,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10404,7 +10425,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10737,6 +10758,1152 @@
       </c>
       <c r="BK52">
         <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5239105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45080.375</v>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>111</v>
+      </c>
+      <c r="P53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+      <c r="S53">
+        <v>8</v>
+      </c>
+      <c r="T53">
+        <v>3.2</v>
+      </c>
+      <c r="U53">
+        <v>1.99</v>
+      </c>
+      <c r="V53">
+        <v>3.5</v>
+      </c>
+      <c r="W53">
+        <v>1.5</v>
+      </c>
+      <c r="X53">
+        <v>2.5</v>
+      </c>
+      <c r="Y53">
+        <v>3.5</v>
+      </c>
+      <c r="Z53">
+        <v>1.29</v>
+      </c>
+      <c r="AA53">
+        <v>10</v>
+      </c>
+      <c r="AB53">
+        <v>1.06</v>
+      </c>
+      <c r="AC53">
+        <v>2.45</v>
+      </c>
+      <c r="AD53">
+        <v>2.98</v>
+      </c>
+      <c r="AE53">
+        <v>2.8</v>
+      </c>
+      <c r="AF53">
+        <v>1.08</v>
+      </c>
+      <c r="AG53">
+        <v>7</v>
+      </c>
+      <c r="AH53">
+        <v>1.4</v>
+      </c>
+      <c r="AI53">
+        <v>2.75</v>
+      </c>
+      <c r="AJ53">
+        <v>2.23</v>
+      </c>
+      <c r="AK53">
+        <v>1.58</v>
+      </c>
+      <c r="AL53">
+        <v>2.03</v>
+      </c>
+      <c r="AM53">
+        <v>1.76</v>
+      </c>
+      <c r="AN53">
+        <v>1.32</v>
+      </c>
+      <c r="AO53">
+        <v>1.37</v>
+      </c>
+      <c r="AP53">
+        <v>1.47</v>
+      </c>
+      <c r="AQ53">
+        <v>2</v>
+      </c>
+      <c r="AR53">
+        <v>1.6</v>
+      </c>
+      <c r="AS53">
+        <v>2.33</v>
+      </c>
+      <c r="AT53">
+        <v>1.33</v>
+      </c>
+      <c r="AU53">
+        <v>1.94</v>
+      </c>
+      <c r="AV53">
+        <v>1.18</v>
+      </c>
+      <c r="AW53">
+        <v>3.12</v>
+      </c>
+      <c r="AX53">
+        <v>1.8</v>
+      </c>
+      <c r="AY53">
+        <v>5.75</v>
+      </c>
+      <c r="AZ53">
+        <v>2.3</v>
+      </c>
+      <c r="BA53">
+        <v>1.17</v>
+      </c>
+      <c r="BB53">
+        <v>1.4</v>
+      </c>
+      <c r="BC53">
+        <v>1.65</v>
+      </c>
+      <c r="BD53">
+        <v>2</v>
+      </c>
+      <c r="BE53">
+        <v>2.5</v>
+      </c>
+      <c r="BF53">
+        <v>10</v>
+      </c>
+      <c r="BG53">
+        <v>8</v>
+      </c>
+      <c r="BH53">
+        <v>1</v>
+      </c>
+      <c r="BI53">
+        <v>4</v>
+      </c>
+      <c r="BJ53">
+        <v>11</v>
+      </c>
+      <c r="BK53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5239106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45080.45833333334</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" t="s">
+        <v>71</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>112</v>
+      </c>
+      <c r="P54" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q54">
+        <v>4</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>7</v>
+      </c>
+      <c r="T54">
+        <v>2.28</v>
+      </c>
+      <c r="U54">
+        <v>2.18</v>
+      </c>
+      <c r="V54">
+        <v>4.95</v>
+      </c>
+      <c r="W54">
+        <v>1.42</v>
+      </c>
+      <c r="X54">
+        <v>3.01</v>
+      </c>
+      <c r="Y54">
+        <v>3.06</v>
+      </c>
+      <c r="Z54">
+        <v>1.4</v>
+      </c>
+      <c r="AA54">
+        <v>8</v>
+      </c>
+      <c r="AB54">
+        <v>1.08</v>
+      </c>
+      <c r="AC54">
+        <v>1.6</v>
+      </c>
+      <c r="AD54">
+        <v>3.5</v>
+      </c>
+      <c r="AE54">
+        <v>5</v>
+      </c>
+      <c r="AF54">
+        <v>1.06</v>
+      </c>
+      <c r="AG54">
+        <v>8</v>
+      </c>
+      <c r="AH54">
+        <v>1.3</v>
+      </c>
+      <c r="AI54">
+        <v>3.4</v>
+      </c>
+      <c r="AJ54">
+        <v>1.87</v>
+      </c>
+      <c r="AK54">
+        <v>1.83</v>
+      </c>
+      <c r="AL54">
+        <v>1.95</v>
+      </c>
+      <c r="AM54">
+        <v>1.81</v>
+      </c>
+      <c r="AN54">
+        <v>1.15</v>
+      </c>
+      <c r="AO54">
+        <v>1.26</v>
+      </c>
+      <c r="AP54">
+        <v>2.24</v>
+      </c>
+      <c r="AQ54">
+        <v>1.8</v>
+      </c>
+      <c r="AR54">
+        <v>0.6</v>
+      </c>
+      <c r="AS54">
+        <v>2</v>
+      </c>
+      <c r="AT54">
+        <v>0.5</v>
+      </c>
+      <c r="AU54">
+        <v>1.65</v>
+      </c>
+      <c r="AV54">
+        <v>1.24</v>
+      </c>
+      <c r="AW54">
+        <v>2.89</v>
+      </c>
+      <c r="AX54">
+        <v>1.45</v>
+      </c>
+      <c r="AY54">
+        <v>9</v>
+      </c>
+      <c r="AZ54">
+        <v>3.3</v>
+      </c>
+      <c r="BA54">
+        <v>1.18</v>
+      </c>
+      <c r="BB54">
+        <v>1.4</v>
+      </c>
+      <c r="BC54">
+        <v>1.65</v>
+      </c>
+      <c r="BD54">
+        <v>2</v>
+      </c>
+      <c r="BE54">
+        <v>2.5</v>
+      </c>
+      <c r="BF54">
+        <v>5</v>
+      </c>
+      <c r="BG54">
+        <v>2</v>
+      </c>
+      <c r="BH54">
+        <v>2</v>
+      </c>
+      <c r="BI54">
+        <v>2</v>
+      </c>
+      <c r="BJ54">
+        <v>7</v>
+      </c>
+      <c r="BK54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:63">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5239107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45080.45833333334</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" t="s">
+        <v>68</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>113</v>
+      </c>
+      <c r="P55" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q55">
+        <v>16</v>
+      </c>
+      <c r="R55">
+        <v>5</v>
+      </c>
+      <c r="S55">
+        <v>21</v>
+      </c>
+      <c r="T55">
+        <v>3.22</v>
+      </c>
+      <c r="U55">
+        <v>2.09</v>
+      </c>
+      <c r="V55">
+        <v>3.3</v>
+      </c>
+      <c r="W55">
+        <v>1.42</v>
+      </c>
+      <c r="X55">
+        <v>2.75</v>
+      </c>
+      <c r="Y55">
+        <v>2.95</v>
+      </c>
+      <c r="Z55">
+        <v>1.37</v>
+      </c>
+      <c r="AA55">
+        <v>7.6</v>
+      </c>
+      <c r="AB55">
+        <v>1.07</v>
+      </c>
+      <c r="AC55">
+        <v>2.7</v>
+      </c>
+      <c r="AD55">
+        <v>3.3</v>
+      </c>
+      <c r="AE55">
+        <v>2.63</v>
+      </c>
+      <c r="AF55">
+        <v>1.03</v>
+      </c>
+      <c r="AG55">
+        <v>8.5</v>
+      </c>
+      <c r="AH55">
+        <v>1.31</v>
+      </c>
+      <c r="AI55">
+        <v>3.08</v>
+      </c>
+      <c r="AJ55">
+        <v>1.85</v>
+      </c>
+      <c r="AK55">
+        <v>1.95</v>
+      </c>
+      <c r="AL55">
+        <v>1.79</v>
+      </c>
+      <c r="AM55">
+        <v>1.96</v>
+      </c>
+      <c r="AN55">
+        <v>1.48</v>
+      </c>
+      <c r="AO55">
+        <v>1.32</v>
+      </c>
+      <c r="AP55">
+        <v>1.48</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>0.33</v>
+      </c>
+      <c r="AS55">
+        <v>1.33</v>
+      </c>
+      <c r="AT55">
+        <v>0.25</v>
+      </c>
+      <c r="AU55">
+        <v>1.17</v>
+      </c>
+      <c r="AV55">
+        <v>1.21</v>
+      </c>
+      <c r="AW55">
+        <v>2.38</v>
+      </c>
+      <c r="AX55">
+        <v>1.64</v>
+      </c>
+      <c r="AY55">
+        <v>8.5</v>
+      </c>
+      <c r="AZ55">
+        <v>2.66</v>
+      </c>
+      <c r="BA55">
+        <v>1.18</v>
+      </c>
+      <c r="BB55">
+        <v>1.36</v>
+      </c>
+      <c r="BC55">
+        <v>1.66</v>
+      </c>
+      <c r="BD55">
+        <v>2.11</v>
+      </c>
+      <c r="BE55">
+        <v>2.76</v>
+      </c>
+      <c r="BF55">
+        <v>7</v>
+      </c>
+      <c r="BG55">
+        <v>6</v>
+      </c>
+      <c r="BH55">
+        <v>4</v>
+      </c>
+      <c r="BI55">
+        <v>6</v>
+      </c>
+      <c r="BJ55">
+        <v>11</v>
+      </c>
+      <c r="BK55">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:63">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5239108</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45080.45833333334</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" t="s">
+        <v>66</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56" t="s">
+        <v>80</v>
+      </c>
+      <c r="P56" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>5</v>
+      </c>
+      <c r="T56">
+        <v>2.65</v>
+      </c>
+      <c r="U56">
+        <v>2.12</v>
+      </c>
+      <c r="V56">
+        <v>5.23</v>
+      </c>
+      <c r="W56">
+        <v>1.52</v>
+      </c>
+      <c r="X56">
+        <v>2.64</v>
+      </c>
+      <c r="Y56">
+        <v>3.43</v>
+      </c>
+      <c r="Z56">
+        <v>1.33</v>
+      </c>
+      <c r="AA56">
+        <v>10</v>
+      </c>
+      <c r="AB56">
+        <v>1.06</v>
+      </c>
+      <c r="AC56">
+        <v>1.9</v>
+      </c>
+      <c r="AD56">
+        <v>3.2</v>
+      </c>
+      <c r="AE56">
+        <v>4.6</v>
+      </c>
+      <c r="AF56">
+        <v>1.1</v>
+      </c>
+      <c r="AG56">
+        <v>6.5</v>
+      </c>
+      <c r="AH56">
+        <v>1.4</v>
+      </c>
+      <c r="AI56">
+        <v>2.75</v>
+      </c>
+      <c r="AJ56">
+        <v>2.3</v>
+      </c>
+      <c r="AK56">
+        <v>1.6</v>
+      </c>
+      <c r="AL56">
+        <v>2.05</v>
+      </c>
+      <c r="AM56">
+        <v>1.7</v>
+      </c>
+      <c r="AN56">
+        <v>1.18</v>
+      </c>
+      <c r="AO56">
+        <v>1.33</v>
+      </c>
+      <c r="AP56">
+        <v>1.85</v>
+      </c>
+      <c r="AQ56">
+        <v>2.6</v>
+      </c>
+      <c r="AR56">
+        <v>2.33</v>
+      </c>
+      <c r="AS56">
+        <v>2.33</v>
+      </c>
+      <c r="AT56">
+        <v>2</v>
+      </c>
+      <c r="AU56">
+        <v>1.53</v>
+      </c>
+      <c r="AV56">
+        <v>1.32</v>
+      </c>
+      <c r="AW56">
+        <v>2.85</v>
+      </c>
+      <c r="AX56">
+        <v>1.47</v>
+      </c>
+      <c r="AY56">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ56">
+        <v>3.22</v>
+      </c>
+      <c r="BA56">
+        <v>1.17</v>
+      </c>
+      <c r="BB56">
+        <v>1.4</v>
+      </c>
+      <c r="BC56">
+        <v>1.65</v>
+      </c>
+      <c r="BD56">
+        <v>2</v>
+      </c>
+      <c r="BE56">
+        <v>2.5</v>
+      </c>
+      <c r="BF56">
+        <v>5</v>
+      </c>
+      <c r="BG56">
+        <v>6</v>
+      </c>
+      <c r="BH56">
+        <v>3</v>
+      </c>
+      <c r="BI56">
+        <v>2</v>
+      </c>
+      <c r="BJ56">
+        <v>8</v>
+      </c>
+      <c r="BK56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5239109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45080.45833333334</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+      <c r="O57" t="s">
+        <v>114</v>
+      </c>
+      <c r="P57" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>3</v>
+      </c>
+      <c r="T57">
+        <v>2.15</v>
+      </c>
+      <c r="U57">
+        <v>2.25</v>
+      </c>
+      <c r="V57">
+        <v>4.7</v>
+      </c>
+      <c r="W57">
+        <v>1.36</v>
+      </c>
+      <c r="X57">
+        <v>3</v>
+      </c>
+      <c r="Y57">
+        <v>2.62</v>
+      </c>
+      <c r="Z57">
+        <v>1.44</v>
+      </c>
+      <c r="AA57">
+        <v>6</v>
+      </c>
+      <c r="AB57">
+        <v>1.11</v>
+      </c>
+      <c r="AC57">
+        <v>1.8</v>
+      </c>
+      <c r="AD57">
+        <v>3.75</v>
+      </c>
+      <c r="AE57">
+        <v>4.4</v>
+      </c>
+      <c r="AF57">
+        <v>1.05</v>
+      </c>
+      <c r="AG57">
+        <v>9</v>
+      </c>
+      <c r="AH57">
+        <v>1.29</v>
+      </c>
+      <c r="AI57">
+        <v>3.5</v>
+      </c>
+      <c r="AJ57">
+        <v>1.83</v>
+      </c>
+      <c r="AK57">
+        <v>1.95</v>
+      </c>
+      <c r="AL57">
+        <v>1.73</v>
+      </c>
+      <c r="AM57">
+        <v>2</v>
+      </c>
+      <c r="AN57">
+        <v>1.18</v>
+      </c>
+      <c r="AO57">
+        <v>1.25</v>
+      </c>
+      <c r="AP57">
+        <v>2.1</v>
+      </c>
+      <c r="AQ57">
+        <v>0.75</v>
+      </c>
+      <c r="AR57">
+        <v>0.33</v>
+      </c>
+      <c r="AS57">
+        <v>1.2</v>
+      </c>
+      <c r="AT57">
+        <v>0.25</v>
+      </c>
+      <c r="AU57">
+        <v>1.2</v>
+      </c>
+      <c r="AV57">
+        <v>1.48</v>
+      </c>
+      <c r="AW57">
+        <v>2.68</v>
+      </c>
+      <c r="AX57">
+        <v>1.51</v>
+      </c>
+      <c r="AY57">
+        <v>8.5</v>
+      </c>
+      <c r="AZ57">
+        <v>3.07</v>
+      </c>
+      <c r="BA57">
+        <v>1.15</v>
+      </c>
+      <c r="BB57">
+        <v>1.31</v>
+      </c>
+      <c r="BC57">
+        <v>1.6</v>
+      </c>
+      <c r="BD57">
+        <v>1.95</v>
+      </c>
+      <c r="BE57">
+        <v>2.4</v>
+      </c>
+      <c r="BF57">
+        <v>5</v>
+      </c>
+      <c r="BG57">
+        <v>5</v>
+      </c>
+      <c r="BH57">
+        <v>2</v>
+      </c>
+      <c r="BI57">
+        <v>1</v>
+      </c>
+      <c r="BJ57">
+        <v>7</v>
+      </c>
+      <c r="BK57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5239110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45080.5</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>115</v>
+      </c>
+      <c r="P58" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q58">
+        <v>7</v>
+      </c>
+      <c r="R58">
+        <v>5</v>
+      </c>
+      <c r="S58">
+        <v>12</v>
+      </c>
+      <c r="T58">
+        <v>2.3</v>
+      </c>
+      <c r="U58">
+        <v>2.1</v>
+      </c>
+      <c r="V58">
+        <v>4.7</v>
+      </c>
+      <c r="W58">
+        <v>1.45</v>
+      </c>
+      <c r="X58">
+        <v>2.88</v>
+      </c>
+      <c r="Y58">
+        <v>3.21</v>
+      </c>
+      <c r="Z58">
+        <v>1.37</v>
+      </c>
+      <c r="AA58">
+        <v>7</v>
+      </c>
+      <c r="AB58">
+        <v>1.08</v>
+      </c>
+      <c r="AC58">
+        <v>1.83</v>
+      </c>
+      <c r="AD58">
+        <v>3.4</v>
+      </c>
+      <c r="AE58">
+        <v>4.75</v>
+      </c>
+      <c r="AF58">
+        <v>1.07</v>
+      </c>
+      <c r="AG58">
+        <v>7.5</v>
+      </c>
+      <c r="AH58">
+        <v>1.36</v>
+      </c>
+      <c r="AI58">
+        <v>3</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>1.8</v>
+      </c>
+      <c r="AL58">
+        <v>1.85</v>
+      </c>
+      <c r="AM58">
+        <v>1.85</v>
+      </c>
+      <c r="AN58">
+        <v>1.2</v>
+      </c>
+      <c r="AO58">
+        <v>1.29</v>
+      </c>
+      <c r="AP58">
+        <v>1.95</v>
+      </c>
+      <c r="AQ58">
+        <v>1.75</v>
+      </c>
+      <c r="AR58">
+        <v>1</v>
+      </c>
+      <c r="AS58">
+        <v>1.6</v>
+      </c>
+      <c r="AT58">
+        <v>1</v>
+      </c>
+      <c r="AU58">
+        <v>1.25</v>
+      </c>
+      <c r="AV58">
+        <v>0.95</v>
+      </c>
+      <c r="AW58">
+        <v>2.2</v>
+      </c>
+      <c r="AX58">
+        <v>1.69</v>
+      </c>
+      <c r="AY58">
+        <v>8</v>
+      </c>
+      <c r="AZ58">
+        <v>2.63</v>
+      </c>
+      <c r="BA58">
+        <v>1.29</v>
+      </c>
+      <c r="BB58">
+        <v>1.6</v>
+      </c>
+      <c r="BC58">
+        <v>2</v>
+      </c>
+      <c r="BD58">
+        <v>2.5</v>
+      </c>
+      <c r="BE58">
+        <v>3.42</v>
+      </c>
+      <c r="BF58">
+        <v>5</v>
+      </c>
+      <c r="BG58">
+        <v>3</v>
+      </c>
+      <c r="BH58">
+        <v>3</v>
+      </c>
+      <c r="BI58">
+        <v>2</v>
+      </c>
+      <c r="BJ58">
+        <v>8</v>
+      </c>
+      <c r="BK58">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,21 @@
     <t>['11', '42']</t>
   </si>
   <si>
+    <t>['30', '37']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['2', '90+2']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -385,9 +400,6 @@
     <t>['50', '77', '81']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
     <t>['47']</t>
   </si>
   <si>
@@ -461,6 +473,15 @@
   </si>
   <si>
     <t>['54', '62']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['48', '74']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK58"/>
+  <dimension ref="A1:BK64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1087,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1153,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT2">
         <v>0.75</v>
@@ -1257,7 +1278,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1344,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT3">
         <v>0.5</v>
@@ -1448,7 +1469,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1830,7 +1851,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1920,7 +1941,7 @@
         <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2403,7 +2424,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2490,10 +2511,10 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT9">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2594,7 +2615,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2872,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT11">
         <v>2</v>
@@ -3066,7 +3087,7 @@
         <v>1</v>
       </c>
       <c r="AT12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0.87</v>
@@ -3167,7 +3188,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3358,7 +3379,7 @@
         <v>80</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3445,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT14">
         <v>1.33</v>
@@ -3639,7 +3660,7 @@
         <v>2.33</v>
       </c>
       <c r="AT15">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU15">
         <v>1.36</v>
@@ -3827,7 +3848,7 @@
         <v>2</v>
       </c>
       <c r="AS16">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT16">
         <v>1</v>
@@ -3931,7 +3952,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4021,7 +4042,7 @@
         <v>1.33</v>
       </c>
       <c r="AT17">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU17">
         <v>1.15</v>
@@ -4209,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -4313,7 +4334,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4403,7 +4424,7 @@
         <v>2.33</v>
       </c>
       <c r="AT19">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU19">
         <v>1.59</v>
@@ -4504,7 +4525,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4591,7 +4612,7 @@
         <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT20">
         <v>1.33</v>
@@ -4886,7 +4907,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5358,7 +5379,7 @@
         <v>1.6</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU24">
         <v>1.11</v>
@@ -5459,7 +5480,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5737,7 +5758,7 @@
         <v>1.67</v>
       </c>
       <c r="AS26">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -5841,7 +5862,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -5928,10 +5949,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU27">
         <v>1.05</v>
@@ -6032,7 +6053,7 @@
         <v>94</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6119,7 +6140,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT28">
         <v>0.75</v>
@@ -6223,7 +6244,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6313,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="AT29">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU29">
         <v>0.92</v>
@@ -6414,7 +6435,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6504,7 +6525,7 @@
         <v>1.6</v>
       </c>
       <c r="AT30">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU30">
         <v>1.11</v>
@@ -6605,7 +6626,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6692,10 +6713,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT31">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>1.67</v>
@@ -6796,7 +6817,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -6987,7 +7008,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7074,7 +7095,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT33">
         <v>0.5</v>
@@ -7178,7 +7199,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7268,7 +7289,7 @@
         <v>1.33</v>
       </c>
       <c r="AT34">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7456,10 +7477,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7647,7 +7668,7 @@
         <v>2.33</v>
       </c>
       <c r="AS36">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT36">
         <v>2</v>
@@ -7751,7 +7772,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7942,7 +7963,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8032,7 +8053,7 @@
         <v>1.2</v>
       </c>
       <c r="AT38">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU38">
         <v>0.87</v>
@@ -8220,7 +8241,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8324,7 +8345,7 @@
         <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8602,7 +8623,7 @@
         <v>1.25</v>
       </c>
       <c r="AS41">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -8706,7 +8727,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8796,7 +8817,7 @@
         <v>1.6</v>
       </c>
       <c r="AT42">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU42">
         <v>1.19</v>
@@ -8897,7 +8918,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -8984,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT43">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU43">
         <v>1.23</v>
@@ -9088,7 +9109,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9279,7 +9300,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9366,10 +9387,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT45">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9470,7 +9491,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9661,7 +9682,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9939,7 +9960,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT48">
         <v>2</v>
@@ -10130,7 +10151,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT49">
         <v>0.5</v>
@@ -10234,7 +10255,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10321,10 +10342,10 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT50">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AU50">
         <v>1.53</v>
@@ -10425,7 +10446,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10512,10 +10533,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
+        <v>1.17</v>
+      </c>
+      <c r="AT51">
         <v>0.8</v>
-      </c>
-      <c r="AT51">
-        <v>1</v>
       </c>
       <c r="AU51">
         <v>1.4</v>
@@ -10706,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU52">
         <v>1.31</v>
@@ -10894,7 +10915,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT53">
         <v>1.33</v>
@@ -11085,7 +11106,7 @@
         <v>0.6</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT54">
         <v>0.5</v>
@@ -11279,7 +11300,7 @@
         <v>1.33</v>
       </c>
       <c r="AT55">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU55">
         <v>1.17</v>
@@ -11571,7 +11592,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11661,7 +11682,7 @@
         <v>1.2</v>
       </c>
       <c r="AT57">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -11762,7 +11783,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -11904,6 +11925,1152 @@
       </c>
       <c r="BK58">
         <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5239113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45084.5</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>116</v>
+      </c>
+      <c r="P59" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q59">
+        <v>8</v>
+      </c>
+      <c r="R59">
+        <v>4</v>
+      </c>
+      <c r="S59">
+        <v>12</v>
+      </c>
+      <c r="T59">
+        <v>2.17</v>
+      </c>
+      <c r="U59">
+        <v>2.23</v>
+      </c>
+      <c r="V59">
+        <v>5.45</v>
+      </c>
+      <c r="W59">
+        <v>1.39</v>
+      </c>
+      <c r="X59">
+        <v>2.88</v>
+      </c>
+      <c r="Y59">
+        <v>2.78</v>
+      </c>
+      <c r="Z59">
+        <v>1.41</v>
+      </c>
+      <c r="AA59">
+        <v>7</v>
+      </c>
+      <c r="AB59">
+        <v>1.08</v>
+      </c>
+      <c r="AC59">
+        <v>1.57</v>
+      </c>
+      <c r="AD59">
+        <v>3.6</v>
+      </c>
+      <c r="AE59">
+        <v>5.25</v>
+      </c>
+      <c r="AF59">
+        <v>1.02</v>
+      </c>
+      <c r="AG59">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH59">
+        <v>1.27</v>
+      </c>
+      <c r="AI59">
+        <v>3.32</v>
+      </c>
+      <c r="AJ59">
+        <v>1.83</v>
+      </c>
+      <c r="AK59">
+        <v>1.83</v>
+      </c>
+      <c r="AL59">
+        <v>1.91</v>
+      </c>
+      <c r="AM59">
+        <v>1.83</v>
+      </c>
+      <c r="AN59">
+        <v>1.15</v>
+      </c>
+      <c r="AO59">
+        <v>1.25</v>
+      </c>
+      <c r="AP59">
+        <v>2.3</v>
+      </c>
+      <c r="AQ59">
+        <v>0.8</v>
+      </c>
+      <c r="AR59">
+        <v>0.25</v>
+      </c>
+      <c r="AS59">
+        <v>1.17</v>
+      </c>
+      <c r="AT59">
+        <v>0.2</v>
+      </c>
+      <c r="AU59">
+        <v>1.4</v>
+      </c>
+      <c r="AV59">
+        <v>1.37</v>
+      </c>
+      <c r="AW59">
+        <v>2.77</v>
+      </c>
+      <c r="AX59">
+        <v>1.41</v>
+      </c>
+      <c r="AY59">
+        <v>9</v>
+      </c>
+      <c r="AZ59">
+        <v>3.48</v>
+      </c>
+      <c r="BA59">
+        <v>1.13</v>
+      </c>
+      <c r="BB59">
+        <v>1.28</v>
+      </c>
+      <c r="BC59">
+        <v>1.58</v>
+      </c>
+      <c r="BD59">
+        <v>1.94</v>
+      </c>
+      <c r="BE59">
+        <v>2.41</v>
+      </c>
+      <c r="BF59">
+        <v>9</v>
+      </c>
+      <c r="BG59">
+        <v>4</v>
+      </c>
+      <c r="BH59">
+        <v>5</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>14</v>
+      </c>
+      <c r="BK59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5239111</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45084.5</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>111</v>
+      </c>
+      <c r="P60" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
+      <c r="S60">
+        <v>10</v>
+      </c>
+      <c r="T60">
+        <v>2.17</v>
+      </c>
+      <c r="U60">
+        <v>2.31</v>
+      </c>
+      <c r="V60">
+        <v>5.2</v>
+      </c>
+      <c r="W60">
+        <v>1.34</v>
+      </c>
+      <c r="X60">
+        <v>3.1</v>
+      </c>
+      <c r="Y60">
+        <v>2.58</v>
+      </c>
+      <c r="Z60">
+        <v>1.47</v>
+      </c>
+      <c r="AA60">
+        <v>6.2</v>
+      </c>
+      <c r="AB60">
+        <v>1.1</v>
+      </c>
+      <c r="AC60">
+        <v>1.61</v>
+      </c>
+      <c r="AD60">
+        <v>3.7</v>
+      </c>
+      <c r="AE60">
+        <v>4.8</v>
+      </c>
+      <c r="AF60">
+        <v>1.03</v>
+      </c>
+      <c r="AG60">
+        <v>14.25</v>
+      </c>
+      <c r="AH60">
+        <v>1.22</v>
+      </c>
+      <c r="AI60">
+        <v>4.08</v>
+      </c>
+      <c r="AJ60">
+        <v>1.67</v>
+      </c>
+      <c r="AK60">
+        <v>2</v>
+      </c>
+      <c r="AL60">
+        <v>1.78</v>
+      </c>
+      <c r="AM60">
+        <v>1.99</v>
+      </c>
+      <c r="AN60">
+        <v>1.16</v>
+      </c>
+      <c r="AO60">
+        <v>1.23</v>
+      </c>
+      <c r="AP60">
+        <v>2.29</v>
+      </c>
+      <c r="AQ60">
+        <v>2.33</v>
+      </c>
+      <c r="AR60">
+        <v>1</v>
+      </c>
+      <c r="AS60">
+        <v>2.5</v>
+      </c>
+      <c r="AT60">
+        <v>0.8</v>
+      </c>
+      <c r="AU60">
+        <v>1.9</v>
+      </c>
+      <c r="AV60">
+        <v>1.17</v>
+      </c>
+      <c r="AW60">
+        <v>3.07</v>
+      </c>
+      <c r="AX60">
+        <v>1.37</v>
+      </c>
+      <c r="AY60">
+        <v>9.5</v>
+      </c>
+      <c r="AZ60">
+        <v>3.8</v>
+      </c>
+      <c r="BA60">
+        <v>1.17</v>
+      </c>
+      <c r="BB60">
+        <v>1.34</v>
+      </c>
+      <c r="BC60">
+        <v>1.6</v>
+      </c>
+      <c r="BD60">
+        <v>2.02</v>
+      </c>
+      <c r="BE60">
+        <v>2.4</v>
+      </c>
+      <c r="BF60">
+        <v>4</v>
+      </c>
+      <c r="BG60">
+        <v>6</v>
+      </c>
+      <c r="BH60">
+        <v>5</v>
+      </c>
+      <c r="BI60">
+        <v>5</v>
+      </c>
+      <c r="BJ60">
+        <v>9</v>
+      </c>
+      <c r="BK60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5239112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45084.5</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>117</v>
+      </c>
+      <c r="P61" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q61">
+        <v>5</v>
+      </c>
+      <c r="R61">
+        <v>4</v>
+      </c>
+      <c r="S61">
+        <v>9</v>
+      </c>
+      <c r="T61">
+        <v>2.37</v>
+      </c>
+      <c r="U61">
+        <v>2.05</v>
+      </c>
+      <c r="V61">
+        <v>4.75</v>
+      </c>
+      <c r="W61">
+        <v>1.46</v>
+      </c>
+      <c r="X61">
+        <v>2.5</v>
+      </c>
+      <c r="Y61">
+        <v>3.2</v>
+      </c>
+      <c r="Z61">
+        <v>1.3</v>
+      </c>
+      <c r="AA61">
+        <v>9</v>
+      </c>
+      <c r="AB61">
+        <v>1.06</v>
+      </c>
+      <c r="AC61">
+        <v>1.73</v>
+      </c>
+      <c r="AD61">
+        <v>3.2</v>
+      </c>
+      <c r="AE61">
+        <v>4.8</v>
+      </c>
+      <c r="AF61">
+        <v>1.08</v>
+      </c>
+      <c r="AG61">
+        <v>7.25</v>
+      </c>
+      <c r="AH61">
+        <v>1.42</v>
+      </c>
+      <c r="AI61">
+        <v>2.65</v>
+      </c>
+      <c r="AJ61">
+        <v>2.25</v>
+      </c>
+      <c r="AK61">
+        <v>1.5</v>
+      </c>
+      <c r="AL61">
+        <v>2.15</v>
+      </c>
+      <c r="AM61">
+        <v>1.61</v>
+      </c>
+      <c r="AN61">
+        <v>1.19</v>
+      </c>
+      <c r="AO61">
+        <v>1.29</v>
+      </c>
+      <c r="AP61">
+        <v>1.98</v>
+      </c>
+      <c r="AQ61">
+        <v>2</v>
+      </c>
+      <c r="AR61">
+        <v>2.2</v>
+      </c>
+      <c r="AS61">
+        <v>2.14</v>
+      </c>
+      <c r="AT61">
+        <v>1.83</v>
+      </c>
+      <c r="AU61">
+        <v>1.58</v>
+      </c>
+      <c r="AV61">
+        <v>1.41</v>
+      </c>
+      <c r="AW61">
+        <v>2.99</v>
+      </c>
+      <c r="AX61">
+        <v>1.41</v>
+      </c>
+      <c r="AY61">
+        <v>9</v>
+      </c>
+      <c r="AZ61">
+        <v>3.48</v>
+      </c>
+      <c r="BA61">
+        <v>1.24</v>
+      </c>
+      <c r="BB61">
+        <v>1.54</v>
+      </c>
+      <c r="BC61">
+        <v>1.9</v>
+      </c>
+      <c r="BD61">
+        <v>2.36</v>
+      </c>
+      <c r="BE61">
+        <v>3.08</v>
+      </c>
+      <c r="BF61">
+        <v>6</v>
+      </c>
+      <c r="BG61">
+        <v>2</v>
+      </c>
+      <c r="BH61">
+        <v>5</v>
+      </c>
+      <c r="BI61">
+        <v>4</v>
+      </c>
+      <c r="BJ61">
+        <v>11</v>
+      </c>
+      <c r="BK61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>5239115</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45084.5</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>118</v>
+      </c>
+      <c r="P62" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q62">
+        <v>7</v>
+      </c>
+      <c r="R62">
+        <v>5</v>
+      </c>
+      <c r="S62">
+        <v>12</v>
+      </c>
+      <c r="T62">
+        <v>2.85</v>
+      </c>
+      <c r="U62">
+        <v>1.98</v>
+      </c>
+      <c r="V62">
+        <v>3.8</v>
+      </c>
+      <c r="W62">
+        <v>1.47</v>
+      </c>
+      <c r="X62">
+        <v>2.5</v>
+      </c>
+      <c r="Y62">
+        <v>3.1</v>
+      </c>
+      <c r="Z62">
+        <v>1.31</v>
+      </c>
+      <c r="AA62">
+        <v>8.75</v>
+      </c>
+      <c r="AB62">
+        <v>1.06</v>
+      </c>
+      <c r="AC62">
+        <v>2.15</v>
+      </c>
+      <c r="AD62">
+        <v>3</v>
+      </c>
+      <c r="AE62">
+        <v>3.25</v>
+      </c>
+      <c r="AF62">
+        <v>1.08</v>
+      </c>
+      <c r="AG62">
+        <v>7.25</v>
+      </c>
+      <c r="AH62">
+        <v>1.39</v>
+      </c>
+      <c r="AI62">
+        <v>2.75</v>
+      </c>
+      <c r="AJ62">
+        <v>2.2</v>
+      </c>
+      <c r="AK62">
+        <v>1.57</v>
+      </c>
+      <c r="AL62">
+        <v>1.93</v>
+      </c>
+      <c r="AM62">
+        <v>1.77</v>
+      </c>
+      <c r="AN62">
+        <v>1.32</v>
+      </c>
+      <c r="AO62">
+        <v>1.33</v>
+      </c>
+      <c r="AP62">
+        <v>1.62</v>
+      </c>
+      <c r="AQ62">
+        <v>1.5</v>
+      </c>
+      <c r="AR62">
+        <v>1</v>
+      </c>
+      <c r="AS62">
+        <v>1.4</v>
+      </c>
+      <c r="AT62">
+        <v>1</v>
+      </c>
+      <c r="AU62">
+        <v>1.23</v>
+      </c>
+      <c r="AV62">
+        <v>1.2</v>
+      </c>
+      <c r="AW62">
+        <v>2.43</v>
+      </c>
+      <c r="AX62">
+        <v>1.74</v>
+      </c>
+      <c r="AY62">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ62">
+        <v>2.44</v>
+      </c>
+      <c r="BA62">
+        <v>1.17</v>
+      </c>
+      <c r="BB62">
+        <v>1.43</v>
+      </c>
+      <c r="BC62">
+        <v>1.71</v>
+      </c>
+      <c r="BD62">
+        <v>2.1</v>
+      </c>
+      <c r="BE62">
+        <v>2.63</v>
+      </c>
+      <c r="BF62">
+        <v>3</v>
+      </c>
+      <c r="BG62">
+        <v>4</v>
+      </c>
+      <c r="BH62">
+        <v>6</v>
+      </c>
+      <c r="BI62">
+        <v>4</v>
+      </c>
+      <c r="BJ62">
+        <v>9</v>
+      </c>
+      <c r="BK62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>5239114</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45084.5</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>119</v>
+      </c>
+      <c r="P63" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>5.2</v>
+      </c>
+      <c r="U63">
+        <v>2.19</v>
+      </c>
+      <c r="V63">
+        <v>2.26</v>
+      </c>
+      <c r="W63">
+        <v>1.39</v>
+      </c>
+      <c r="X63">
+        <v>2.88</v>
+      </c>
+      <c r="Y63">
+        <v>2.82</v>
+      </c>
+      <c r="Z63">
+        <v>1.4</v>
+      </c>
+      <c r="AA63">
+        <v>7.1</v>
+      </c>
+      <c r="AB63">
+        <v>1.08</v>
+      </c>
+      <c r="AC63">
+        <v>4.8</v>
+      </c>
+      <c r="AD63">
+        <v>3.6</v>
+      </c>
+      <c r="AE63">
+        <v>1.61</v>
+      </c>
+      <c r="AF63">
+        <v>1.02</v>
+      </c>
+      <c r="AG63">
+        <v>9.1</v>
+      </c>
+      <c r="AH63">
+        <v>1.28</v>
+      </c>
+      <c r="AI63">
+        <v>3.26</v>
+      </c>
+      <c r="AJ63">
+        <v>1.83</v>
+      </c>
+      <c r="AK63">
+        <v>1.83</v>
+      </c>
+      <c r="AL63">
+        <v>1.87</v>
+      </c>
+      <c r="AM63">
+        <v>1.87</v>
+      </c>
+      <c r="AN63">
+        <v>2.12</v>
+      </c>
+      <c r="AO63">
+        <v>1.26</v>
+      </c>
+      <c r="AP63">
+        <v>1.18</v>
+      </c>
+      <c r="AQ63">
+        <v>0.5</v>
+      </c>
+      <c r="AR63">
+        <v>1.2</v>
+      </c>
+      <c r="AS63">
+        <v>0.33</v>
+      </c>
+      <c r="AT63">
+        <v>1.5</v>
+      </c>
+      <c r="AU63">
+        <v>1.7</v>
+      </c>
+      <c r="AV63">
+        <v>1.62</v>
+      </c>
+      <c r="AW63">
+        <v>3.32</v>
+      </c>
+      <c r="AX63">
+        <v>3.26</v>
+      </c>
+      <c r="AY63">
+        <v>9</v>
+      </c>
+      <c r="AZ63">
+        <v>1.45</v>
+      </c>
+      <c r="BA63">
+        <v>1.24</v>
+      </c>
+      <c r="BB63">
+        <v>1.51</v>
+      </c>
+      <c r="BC63">
+        <v>1.83</v>
+      </c>
+      <c r="BD63">
+        <v>2.28</v>
+      </c>
+      <c r="BE63">
+        <v>3.08</v>
+      </c>
+      <c r="BF63">
+        <v>5</v>
+      </c>
+      <c r="BG63">
+        <v>9</v>
+      </c>
+      <c r="BH63">
+        <v>4</v>
+      </c>
+      <c r="BI63">
+        <v>5</v>
+      </c>
+      <c r="BJ63">
+        <v>9</v>
+      </c>
+      <c r="BK63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>5239116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45085.51041666666</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" t="s">
+        <v>68</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>120</v>
+      </c>
+      <c r="P64" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>4</v>
+      </c>
+      <c r="S64">
+        <v>5</v>
+      </c>
+      <c r="T64">
+        <v>1.91</v>
+      </c>
+      <c r="U64">
+        <v>2.3</v>
+      </c>
+      <c r="V64">
+        <v>6</v>
+      </c>
+      <c r="W64">
+        <v>1.36</v>
+      </c>
+      <c r="X64">
+        <v>3</v>
+      </c>
+      <c r="Y64">
+        <v>2.62</v>
+      </c>
+      <c r="Z64">
+        <v>1.44</v>
+      </c>
+      <c r="AA64">
+        <v>6</v>
+      </c>
+      <c r="AB64">
+        <v>1.11</v>
+      </c>
+      <c r="AC64">
+        <v>1.45</v>
+      </c>
+      <c r="AD64">
+        <v>4.5</v>
+      </c>
+      <c r="AE64">
+        <v>7</v>
+      </c>
+      <c r="AF64">
+        <v>1.05</v>
+      </c>
+      <c r="AG64">
+        <v>9</v>
+      </c>
+      <c r="AH64">
+        <v>1.29</v>
+      </c>
+      <c r="AI64">
+        <v>3.5</v>
+      </c>
+      <c r="AJ64">
+        <v>1.81</v>
+      </c>
+      <c r="AK64">
+        <v>2</v>
+      </c>
+      <c r="AL64">
+        <v>2</v>
+      </c>
+      <c r="AM64">
+        <v>1.73</v>
+      </c>
+      <c r="AN64">
+        <v>1.08</v>
+      </c>
+      <c r="AO64">
+        <v>1.2</v>
+      </c>
+      <c r="AP64">
+        <v>2.7</v>
+      </c>
+      <c r="AQ64">
+        <v>2.6</v>
+      </c>
+      <c r="AR64">
+        <v>0.25</v>
+      </c>
+      <c r="AS64">
+        <v>2.67</v>
+      </c>
+      <c r="AT64">
+        <v>0.2</v>
+      </c>
+      <c r="AU64">
+        <v>1.71</v>
+      </c>
+      <c r="AV64">
+        <v>1.32</v>
+      </c>
+      <c r="AW64">
+        <v>3.03</v>
+      </c>
+      <c r="AX64">
+        <v>1.14</v>
+      </c>
+      <c r="AY64">
+        <v>12</v>
+      </c>
+      <c r="AZ64">
+        <v>7</v>
+      </c>
+      <c r="BA64">
+        <v>1.14</v>
+      </c>
+      <c r="BB64">
+        <v>1.29</v>
+      </c>
+      <c r="BC64">
+        <v>1.53</v>
+      </c>
+      <c r="BD64">
+        <v>1.91</v>
+      </c>
+      <c r="BE64">
+        <v>2.44</v>
+      </c>
+      <c r="BF64">
+        <v>2</v>
+      </c>
+      <c r="BG64">
+        <v>5</v>
+      </c>
+      <c r="BH64">
+        <v>4</v>
+      </c>
+      <c r="BI64">
+        <v>3</v>
+      </c>
+      <c r="BJ64">
+        <v>6</v>
+      </c>
+      <c r="BK64">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -12932,13 +12932,13 @@
         <v>155</v>
       </c>
       <c r="Q64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R64">
         <v>4</v>
       </c>
       <c r="S64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T64">
         <v>1.91</v>
@@ -13055,7 +13055,7 @@
         <v>2.44</v>
       </c>
       <c r="BF64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG64">
         <v>5</v>
@@ -13064,13 +13064,13 @@
         <v>4</v>
       </c>
       <c r="BI64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK64">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,18 @@
     <t>['2', '90+2']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -418,9 +430,6 @@
     <t>['20', '39']</t>
   </si>
   <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
     <t>['71']</t>
   </si>
   <si>
@@ -482,6 +491,18 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['25', '47']</t>
+  </si>
+  <si>
+    <t>['27', '84']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK64"/>
+  <dimension ref="A1:BK70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1108,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1177,7 +1198,7 @@
         <v>2.14</v>
       </c>
       <c r="AT2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1278,7 +1299,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1368,7 +1389,7 @@
         <v>2.67</v>
       </c>
       <c r="AT3">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1469,7 +1490,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1556,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1747,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -1851,7 +1872,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2129,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT7">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2323,7 +2344,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU8">
         <v>1.45</v>
@@ -2424,7 +2445,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2615,7 +2636,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2702,10 +2723,10 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT10">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2896,7 +2917,7 @@
         <v>1.17</v>
       </c>
       <c r="AT11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3084,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT12">
         <v>1.5</v>
@@ -3188,7 +3209,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3275,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3469,7 +3490,7 @@
         <v>2.14</v>
       </c>
       <c r="AT14">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU14">
         <v>2.23</v>
@@ -3657,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT15">
         <v>0.2</v>
@@ -3952,7 +3973,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4334,7 +4355,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4421,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="AS19">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT19">
         <v>1.83</v>
@@ -4525,7 +4546,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4615,7 +4636,7 @@
         <v>1.4</v>
       </c>
       <c r="AT20">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU20">
         <v>1.1</v>
@@ -4803,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU21">
         <v>1.41</v>
@@ -4907,7 +4928,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -4994,10 +5015,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5185,10 +5206,10 @@
         <v>1.33</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT23">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5376,10 +5397,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT24">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU24">
         <v>1.11</v>
@@ -5480,7 +5501,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5567,10 +5588,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT25">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU25">
         <v>1.35</v>
@@ -5862,7 +5883,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -5952,7 +5973,7 @@
         <v>1.4</v>
       </c>
       <c r="AT27">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU27">
         <v>1.05</v>
@@ -6053,7 +6074,7 @@
         <v>94</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6143,7 +6164,7 @@
         <v>2.67</v>
       </c>
       <c r="AT28">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU28">
         <v>1.57</v>
@@ -6244,7 +6265,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6331,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT29">
         <v>0.2</v>
@@ -6435,7 +6456,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6522,7 +6543,7 @@
         <v>1.67</v>
       </c>
       <c r="AS30">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT30">
         <v>1.83</v>
@@ -6626,7 +6647,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6817,7 +6838,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -6904,10 +6925,10 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU32">
         <v>0.5600000000000001</v>
@@ -7008,7 +7029,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7098,7 +7119,7 @@
         <v>1.17</v>
       </c>
       <c r="AT33">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU33">
         <v>1.65</v>
@@ -7199,7 +7220,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7477,10 +7498,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT35">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7671,7 +7692,7 @@
         <v>1.17</v>
       </c>
       <c r="AT36">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU36">
         <v>1.49</v>
@@ -7772,7 +7793,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7859,10 +7880,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT37">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AU37">
         <v>1.44</v>
@@ -7963,7 +7984,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8050,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT38">
         <v>0.2</v>
@@ -8345,7 +8366,7 @@
         <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8432,10 +8453,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT40">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU40">
         <v>1.18</v>
@@ -8727,7 +8748,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8814,7 +8835,7 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
         <v>1.5</v>
@@ -8918,7 +8939,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9109,7 +9130,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9196,10 +9217,10 @@
         <v>1.25</v>
       </c>
       <c r="AS44">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT44">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU44">
         <v>1.19</v>
@@ -9300,7 +9321,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9491,7 +9512,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9581,7 +9602,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU46">
         <v>1.19</v>
@@ -9682,7 +9703,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9769,7 +9790,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT47">
         <v>1</v>
@@ -9963,7 +9984,7 @@
         <v>2.67</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10154,7 +10175,7 @@
         <v>2.5</v>
       </c>
       <c r="AT49">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -10255,7 +10276,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10342,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT50">
         <v>1.83</v>
@@ -10446,7 +10467,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10536,7 +10557,7 @@
         <v>1.17</v>
       </c>
       <c r="AT51">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU51">
         <v>1.4</v>
@@ -10724,7 +10745,7 @@
         <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AT52">
         <v>1.5</v>
@@ -10918,7 +10939,7 @@
         <v>2.5</v>
       </c>
       <c r="AT53">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU53">
         <v>1.94</v>
@@ -11109,7 +11130,7 @@
         <v>2.14</v>
       </c>
       <c r="AT54">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU54">
         <v>1.65</v>
@@ -11488,10 +11509,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AT56">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AU56">
         <v>1.53</v>
@@ -11592,7 +11613,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11679,7 +11700,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AT57">
         <v>0.2</v>
@@ -11783,7 +11804,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -11870,7 +11891,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12165,7 +12186,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12255,7 +12276,7 @@
         <v>2.5</v>
       </c>
       <c r="AT60">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>1.9</v>
@@ -12738,7 +12759,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -12825,7 +12846,7 @@
         <v>1.2</v>
       </c>
       <c r="AS63">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AT63">
         <v>1.5</v>
@@ -12929,7 +12950,7 @@
         <v>120</v>
       </c>
       <c r="P64" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13071,6 +13092,1152 @@
       </c>
       <c r="BK64">
         <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>5239117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45088.41666666666</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>121</v>
+      </c>
+      <c r="P65" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q65">
+        <v>5</v>
+      </c>
+      <c r="R65">
+        <v>4</v>
+      </c>
+      <c r="S65">
+        <v>9</v>
+      </c>
+      <c r="T65">
+        <v>3.84</v>
+      </c>
+      <c r="U65">
+        <v>1.99</v>
+      </c>
+      <c r="V65">
+        <v>3.1</v>
+      </c>
+      <c r="W65">
+        <v>1.49</v>
+      </c>
+      <c r="X65">
+        <v>2.4</v>
+      </c>
+      <c r="Y65">
+        <v>3.25</v>
+      </c>
+      <c r="Z65">
+        <v>1.29</v>
+      </c>
+      <c r="AA65">
+        <v>9</v>
+      </c>
+      <c r="AB65">
+        <v>1.05</v>
+      </c>
+      <c r="AC65">
+        <v>2.89</v>
+      </c>
+      <c r="AD65">
+        <v>3.05</v>
+      </c>
+      <c r="AE65">
+        <v>2.46</v>
+      </c>
+      <c r="AF65">
+        <v>1.05</v>
+      </c>
+      <c r="AG65">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH65">
+        <v>1.44</v>
+      </c>
+      <c r="AI65">
+        <v>2.82</v>
+      </c>
+      <c r="AJ65">
+        <v>2.25</v>
+      </c>
+      <c r="AK65">
+        <v>1.57</v>
+      </c>
+      <c r="AL65">
+        <v>1.96</v>
+      </c>
+      <c r="AM65">
+        <v>1.8</v>
+      </c>
+      <c r="AN65">
+        <v>1.5</v>
+      </c>
+      <c r="AO65">
+        <v>1.36</v>
+      </c>
+      <c r="AP65">
+        <v>1.35</v>
+      </c>
+      <c r="AQ65">
+        <v>1.6</v>
+      </c>
+      <c r="AR65">
+        <v>1.33</v>
+      </c>
+      <c r="AS65">
+        <v>1.5</v>
+      </c>
+      <c r="AT65">
+        <v>1.29</v>
+      </c>
+      <c r="AU65">
+        <v>1.27</v>
+      </c>
+      <c r="AV65">
+        <v>1.28</v>
+      </c>
+      <c r="AW65">
+        <v>2.55</v>
+      </c>
+      <c r="AX65">
+        <v>2.1</v>
+      </c>
+      <c r="AY65">
+        <v>5.5</v>
+      </c>
+      <c r="AZ65">
+        <v>1.9</v>
+      </c>
+      <c r="BA65">
+        <v>1.28</v>
+      </c>
+      <c r="BB65">
+        <v>1.48</v>
+      </c>
+      <c r="BC65">
+        <v>1.81</v>
+      </c>
+      <c r="BD65">
+        <v>2.24</v>
+      </c>
+      <c r="BE65">
+        <v>3.42</v>
+      </c>
+      <c r="BF65">
+        <v>5</v>
+      </c>
+      <c r="BG65">
+        <v>3</v>
+      </c>
+      <c r="BH65">
+        <v>3</v>
+      </c>
+      <c r="BI65">
+        <v>4</v>
+      </c>
+      <c r="BJ65">
+        <v>8</v>
+      </c>
+      <c r="BK65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5239118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45088.41666666666</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>74</v>
+      </c>
+      <c r="H66" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>122</v>
+      </c>
+      <c r="P66" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>5</v>
+      </c>
+      <c r="S66">
+        <v>6</v>
+      </c>
+      <c r="T66">
+        <v>3.28</v>
+      </c>
+      <c r="U66">
+        <v>2.07</v>
+      </c>
+      <c r="V66">
+        <v>3.3</v>
+      </c>
+      <c r="W66">
+        <v>1.42</v>
+      </c>
+      <c r="X66">
+        <v>2.6</v>
+      </c>
+      <c r="Y66">
+        <v>3</v>
+      </c>
+      <c r="Z66">
+        <v>1.36</v>
+      </c>
+      <c r="AA66">
+        <v>7.8</v>
+      </c>
+      <c r="AB66">
+        <v>1.06</v>
+      </c>
+      <c r="AC66">
+        <v>2.61</v>
+      </c>
+      <c r="AD66">
+        <v>3.25</v>
+      </c>
+      <c r="AE66">
+        <v>2.58</v>
+      </c>
+      <c r="AF66">
+        <v>1.03</v>
+      </c>
+      <c r="AG66">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AH66">
+        <v>1.35</v>
+      </c>
+      <c r="AI66">
+        <v>3.25</v>
+      </c>
+      <c r="AJ66">
+        <v>2.11</v>
+      </c>
+      <c r="AK66">
+        <v>1.78</v>
+      </c>
+      <c r="AL66">
+        <v>1.81</v>
+      </c>
+      <c r="AM66">
+        <v>1.95</v>
+      </c>
+      <c r="AN66">
+        <v>1.44</v>
+      </c>
+      <c r="AO66">
+        <v>1.33</v>
+      </c>
+      <c r="AP66">
+        <v>1.44</v>
+      </c>
+      <c r="AQ66">
+        <v>1.2</v>
+      </c>
+      <c r="AR66">
+        <v>0.75</v>
+      </c>
+      <c r="AS66">
+        <v>1.17</v>
+      </c>
+      <c r="AT66">
+        <v>0.8</v>
+      </c>
+      <c r="AU66">
+        <v>1.18</v>
+      </c>
+      <c r="AV66">
+        <v>1.49</v>
+      </c>
+      <c r="AW66">
+        <v>2.67</v>
+      </c>
+      <c r="AX66">
+        <v>1.95</v>
+      </c>
+      <c r="AY66">
+        <v>5.5</v>
+      </c>
+      <c r="AZ66">
+        <v>2.05</v>
+      </c>
+      <c r="BA66">
+        <v>1.19</v>
+      </c>
+      <c r="BB66">
+        <v>1.44</v>
+      </c>
+      <c r="BC66">
+        <v>1.74</v>
+      </c>
+      <c r="BD66">
+        <v>2.15</v>
+      </c>
+      <c r="BE66">
+        <v>2.63</v>
+      </c>
+      <c r="BF66">
+        <v>4</v>
+      </c>
+      <c r="BG66">
+        <v>3</v>
+      </c>
+      <c r="BH66">
+        <v>1</v>
+      </c>
+      <c r="BI66">
+        <v>4</v>
+      </c>
+      <c r="BJ66">
+        <v>5</v>
+      </c>
+      <c r="BK66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>5239119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45088.52083333334</v>
+      </c>
+      <c r="F67">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" t="s">
+        <v>65</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>80</v>
+      </c>
+      <c r="P67" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q67">
+        <v>4</v>
+      </c>
+      <c r="R67">
+        <v>3</v>
+      </c>
+      <c r="S67">
+        <v>7</v>
+      </c>
+      <c r="T67">
+        <v>4.38</v>
+      </c>
+      <c r="U67">
+        <v>2</v>
+      </c>
+      <c r="V67">
+        <v>2.62</v>
+      </c>
+      <c r="W67">
+        <v>1.47</v>
+      </c>
+      <c r="X67">
+        <v>2.45</v>
+      </c>
+      <c r="Y67">
+        <v>3</v>
+      </c>
+      <c r="Z67">
+        <v>1.36</v>
+      </c>
+      <c r="AA67">
+        <v>7.5</v>
+      </c>
+      <c r="AB67">
+        <v>1.07</v>
+      </c>
+      <c r="AC67">
+        <v>3.9</v>
+      </c>
+      <c r="AD67">
+        <v>3.3</v>
+      </c>
+      <c r="AE67">
+        <v>1.93</v>
+      </c>
+      <c r="AF67">
+        <v>1.08</v>
+      </c>
+      <c r="AG67">
+        <v>7.25</v>
+      </c>
+      <c r="AH67">
+        <v>1.42</v>
+      </c>
+      <c r="AI67">
+        <v>2.91</v>
+      </c>
+      <c r="AJ67">
+        <v>2.28</v>
+      </c>
+      <c r="AK67">
+        <v>1.64</v>
+      </c>
+      <c r="AL67">
+        <v>2</v>
+      </c>
+      <c r="AM67">
+        <v>1.77</v>
+      </c>
+      <c r="AN67">
+        <v>1.8</v>
+      </c>
+      <c r="AO67">
+        <v>1.33</v>
+      </c>
+      <c r="AP67">
+        <v>1.22</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>2</v>
+      </c>
+      <c r="AS67">
+        <v>0.83</v>
+      </c>
+      <c r="AT67">
+        <v>2.17</v>
+      </c>
+      <c r="AU67">
+        <v>1.17</v>
+      </c>
+      <c r="AV67">
+        <v>1.45</v>
+      </c>
+      <c r="AW67">
+        <v>2.62</v>
+      </c>
+      <c r="AX67">
+        <v>2.77</v>
+      </c>
+      <c r="AY67">
+        <v>8</v>
+      </c>
+      <c r="AZ67">
+        <v>1.64</v>
+      </c>
+      <c r="BA67">
+        <v>1.24</v>
+      </c>
+      <c r="BB67">
+        <v>1.47</v>
+      </c>
+      <c r="BC67">
+        <v>1.88</v>
+      </c>
+      <c r="BD67">
+        <v>2.34</v>
+      </c>
+      <c r="BE67">
+        <v>3.14</v>
+      </c>
+      <c r="BF67">
+        <v>5</v>
+      </c>
+      <c r="BG67">
+        <v>2</v>
+      </c>
+      <c r="BH67">
+        <v>4</v>
+      </c>
+      <c r="BI67">
+        <v>6</v>
+      </c>
+      <c r="BJ67">
+        <v>9</v>
+      </c>
+      <c r="BK67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>5239120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45088.52083333334</v>
+      </c>
+      <c r="F68">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>67</v>
+      </c>
+      <c r="H68" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>80</v>
+      </c>
+      <c r="P68" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>4</v>
+      </c>
+      <c r="S68">
+        <v>8</v>
+      </c>
+      <c r="T68">
+        <v>4.54</v>
+      </c>
+      <c r="U68">
+        <v>2.09</v>
+      </c>
+      <c r="V68">
+        <v>2.59</v>
+      </c>
+      <c r="W68">
+        <v>1.43</v>
+      </c>
+      <c r="X68">
+        <v>2.6</v>
+      </c>
+      <c r="Y68">
+        <v>3</v>
+      </c>
+      <c r="Z68">
+        <v>1.36</v>
+      </c>
+      <c r="AA68">
+        <v>7.8</v>
+      </c>
+      <c r="AB68">
+        <v>1.06</v>
+      </c>
+      <c r="AC68">
+        <v>3.6</v>
+      </c>
+      <c r="AD68">
+        <v>3.5</v>
+      </c>
+      <c r="AE68">
+        <v>1.95</v>
+      </c>
+      <c r="AF68">
+        <v>1.06</v>
+      </c>
+      <c r="AG68">
+        <v>8.25</v>
+      </c>
+      <c r="AH68">
+        <v>1.32</v>
+      </c>
+      <c r="AI68">
+        <v>3.04</v>
+      </c>
+      <c r="AJ68">
+        <v>1.92</v>
+      </c>
+      <c r="AK68">
+        <v>1.93</v>
+      </c>
+      <c r="AL68">
+        <v>1.85</v>
+      </c>
+      <c r="AM68">
+        <v>1.91</v>
+      </c>
+      <c r="AN68">
+        <v>1.8</v>
+      </c>
+      <c r="AO68">
+        <v>1.3</v>
+      </c>
+      <c r="AP68">
+        <v>1.22</v>
+      </c>
+      <c r="AQ68">
+        <v>1</v>
+      </c>
+      <c r="AR68">
+        <v>2</v>
+      </c>
+      <c r="AS68">
+        <v>0.83</v>
+      </c>
+      <c r="AT68">
+        <v>2.2</v>
+      </c>
+      <c r="AU68">
+        <v>1.17</v>
+      </c>
+      <c r="AV68">
+        <v>1.3</v>
+      </c>
+      <c r="AW68">
+        <v>2.47</v>
+      </c>
+      <c r="AX68">
+        <v>2.66</v>
+      </c>
+      <c r="AY68">
+        <v>8.5</v>
+      </c>
+      <c r="AZ68">
+        <v>1.64</v>
+      </c>
+      <c r="BA68">
+        <v>1.13</v>
+      </c>
+      <c r="BB68">
+        <v>1.28</v>
+      </c>
+      <c r="BC68">
+        <v>1.53</v>
+      </c>
+      <c r="BD68">
+        <v>1.93</v>
+      </c>
+      <c r="BE68">
+        <v>2.41</v>
+      </c>
+      <c r="BF68">
+        <v>4</v>
+      </c>
+      <c r="BG68">
+        <v>4</v>
+      </c>
+      <c r="BH68">
+        <v>5</v>
+      </c>
+      <c r="BI68">
+        <v>5</v>
+      </c>
+      <c r="BJ68">
+        <v>9</v>
+      </c>
+      <c r="BK68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>5239121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45088.52083333334</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>123</v>
+      </c>
+      <c r="P69" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q69">
+        <v>8</v>
+      </c>
+      <c r="R69">
+        <v>3</v>
+      </c>
+      <c r="S69">
+        <v>11</v>
+      </c>
+      <c r="T69">
+        <v>1.79</v>
+      </c>
+      <c r="U69">
+        <v>2.49</v>
+      </c>
+      <c r="V69">
+        <v>8</v>
+      </c>
+      <c r="W69">
+        <v>1.32</v>
+      </c>
+      <c r="X69">
+        <v>3.16</v>
+      </c>
+      <c r="Y69">
+        <v>2.5</v>
+      </c>
+      <c r="Z69">
+        <v>1.47</v>
+      </c>
+      <c r="AA69">
+        <v>6.1</v>
+      </c>
+      <c r="AB69">
+        <v>1.1</v>
+      </c>
+      <c r="AC69">
+        <v>1.44</v>
+      </c>
+      <c r="AD69">
+        <v>4.6</v>
+      </c>
+      <c r="AE69">
+        <v>6.25</v>
+      </c>
+      <c r="AF69">
+        <v>1.03</v>
+      </c>
+      <c r="AG69">
+        <v>11.5</v>
+      </c>
+      <c r="AH69">
+        <v>1.22</v>
+      </c>
+      <c r="AI69">
+        <v>4</v>
+      </c>
+      <c r="AJ69">
+        <v>1.71</v>
+      </c>
+      <c r="AK69">
+        <v>2.15</v>
+      </c>
+      <c r="AL69">
+        <v>2.14</v>
+      </c>
+      <c r="AM69">
+        <v>1.67</v>
+      </c>
+      <c r="AN69">
+        <v>1.04</v>
+      </c>
+      <c r="AO69">
+        <v>1.17</v>
+      </c>
+      <c r="AP69">
+        <v>3.25</v>
+      </c>
+      <c r="AQ69">
+        <v>2.33</v>
+      </c>
+      <c r="AR69">
+        <v>0.8</v>
+      </c>
+      <c r="AS69">
+        <v>2.43</v>
+      </c>
+      <c r="AT69">
+        <v>0.67</v>
+      </c>
+      <c r="AU69">
+        <v>1.49</v>
+      </c>
+      <c r="AV69">
+        <v>1.28</v>
+      </c>
+      <c r="AW69">
+        <v>2.77</v>
+      </c>
+      <c r="AX69">
+        <v>1.3</v>
+      </c>
+      <c r="AY69">
+        <v>10</v>
+      </c>
+      <c r="AZ69">
+        <v>4.42</v>
+      </c>
+      <c r="BA69">
+        <v>1.16</v>
+      </c>
+      <c r="BB69">
+        <v>1.33</v>
+      </c>
+      <c r="BC69">
+        <v>1.6</v>
+      </c>
+      <c r="BD69">
+        <v>2.01</v>
+      </c>
+      <c r="BE69">
+        <v>2.58</v>
+      </c>
+      <c r="BF69">
+        <v>6</v>
+      </c>
+      <c r="BG69">
+        <v>6</v>
+      </c>
+      <c r="BH69">
+        <v>5</v>
+      </c>
+      <c r="BI69">
+        <v>4</v>
+      </c>
+      <c r="BJ69">
+        <v>11</v>
+      </c>
+      <c r="BK69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>5239122</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45088.52083333334</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s">
+        <v>71</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>124</v>
+      </c>
+      <c r="P70" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q70">
+        <v>5</v>
+      </c>
+      <c r="R70">
+        <v>4</v>
+      </c>
+      <c r="S70">
+        <v>9</v>
+      </c>
+      <c r="T70">
+        <v>3.4</v>
+      </c>
+      <c r="U70">
+        <v>2.11</v>
+      </c>
+      <c r="V70">
+        <v>3.08</v>
+      </c>
+      <c r="W70">
+        <v>1.41</v>
+      </c>
+      <c r="X70">
+        <v>2.79</v>
+      </c>
+      <c r="Y70">
+        <v>2.88</v>
+      </c>
+      <c r="Z70">
+        <v>1.39</v>
+      </c>
+      <c r="AA70">
+        <v>7.4</v>
+      </c>
+      <c r="AB70">
+        <v>1.07</v>
+      </c>
+      <c r="AC70">
+        <v>3.2</v>
+      </c>
+      <c r="AD70">
+        <v>3.5</v>
+      </c>
+      <c r="AE70">
+        <v>2.1</v>
+      </c>
+      <c r="AF70">
+        <v>1.06</v>
+      </c>
+      <c r="AG70">
+        <v>8.75</v>
+      </c>
+      <c r="AH70">
+        <v>1.34</v>
+      </c>
+      <c r="AI70">
+        <v>3.32</v>
+      </c>
+      <c r="AJ70">
+        <v>1.92</v>
+      </c>
+      <c r="AK70">
+        <v>1.93</v>
+      </c>
+      <c r="AL70">
+        <v>1.76</v>
+      </c>
+      <c r="AM70">
+        <v>2.01</v>
+      </c>
+      <c r="AN70">
+        <v>1.5</v>
+      </c>
+      <c r="AO70">
+        <v>1.3</v>
+      </c>
+      <c r="AP70">
+        <v>1.44</v>
+      </c>
+      <c r="AQ70">
+        <v>0.33</v>
+      </c>
+      <c r="AR70">
+        <v>0.5</v>
+      </c>
+      <c r="AS70">
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <v>0.43</v>
+      </c>
+      <c r="AU70">
+        <v>1.54</v>
+      </c>
+      <c r="AV70">
+        <v>1.14</v>
+      </c>
+      <c r="AW70">
+        <v>2.68</v>
+      </c>
+      <c r="AX70">
+        <v>1.95</v>
+      </c>
+      <c r="AY70">
+        <v>5.5</v>
+      </c>
+      <c r="AZ70">
+        <v>2.05</v>
+      </c>
+      <c r="BA70">
+        <v>1.16</v>
+      </c>
+      <c r="BB70">
+        <v>1.32</v>
+      </c>
+      <c r="BC70">
+        <v>1.65</v>
+      </c>
+      <c r="BD70">
+        <v>2.03</v>
+      </c>
+      <c r="BE70">
+        <v>2.58</v>
+      </c>
+      <c r="BF70">
+        <v>9</v>
+      </c>
+      <c r="BG70">
+        <v>5</v>
+      </c>
+      <c r="BH70">
+        <v>4</v>
+      </c>
+      <c r="BI70">
+        <v>5</v>
+      </c>
+      <c r="BJ70">
+        <v>13</v>
+      </c>
+      <c r="BK70">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -13649,19 +13649,19 @@
         <v>3.14</v>
       </c>
       <c r="BF67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH67">
         <v>4</v>
       </c>
       <c r="BI67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK67">
         <v>8</v>
@@ -13843,16 +13843,16 @@
         <v>4</v>
       </c>
       <c r="BG68">
+        <v>5</v>
+      </c>
+      <c r="BH68">
         <v>4</v>
       </c>
-      <c r="BH68">
-        <v>5</v>
-      </c>
       <c r="BI68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BK68">
         <v>9</v>
@@ -14034,19 +14034,19 @@
         <v>6</v>
       </c>
       <c r="BG69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BI69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ69">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BK69">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:63">
@@ -14222,22 +14222,22 @@
         <v>2.58</v>
       </c>
       <c r="BF70">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BI70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BJ70">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BK70">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,18 @@
     <t>['61']</t>
   </si>
   <si>
+    <t>['5', '82']</t>
+  </si>
+  <si>
+    <t>['47', '76']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -503,6 +515,18 @@
   </si>
   <si>
     <t>['27', '84']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['35', '46', '82', '86']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK70"/>
+  <dimension ref="A1:BK76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1132,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1195,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT2">
         <v>0.8</v>
@@ -1299,7 +1323,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1386,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT3">
         <v>0.43</v>
@@ -1490,7 +1514,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1580,7 +1604,7 @@
         <v>0.83</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1771,7 +1795,7 @@
         <v>0.83</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1872,7 +1896,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1959,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT6">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2341,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT8">
         <v>2.17</v>
@@ -2445,7 +2469,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2532,10 +2556,10 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT9">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2636,7 +2660,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2914,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT11">
         <v>2.2</v>
@@ -3108,7 +3132,7 @@
         <v>0.83</v>
       </c>
       <c r="AT12">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU12">
         <v>0.87</v>
@@ -3209,7 +3233,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3299,7 +3323,7 @@
         <v>0.83</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU13">
         <v>0.97</v>
@@ -3487,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT14">
         <v>1.29</v>
@@ -3681,7 +3705,7 @@
         <v>2.43</v>
       </c>
       <c r="AT15">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU15">
         <v>1.36</v>
@@ -3869,10 +3893,10 @@
         <v>2</v>
       </c>
       <c r="AS16">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT16">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU16">
         <v>1.33</v>
@@ -3973,7 +3997,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4060,10 +4084,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT17">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU17">
         <v>1.15</v>
@@ -4251,10 +4275,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU18">
         <v>1.67</v>
@@ -4355,7 +4379,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4445,7 +4469,7 @@
         <v>2.43</v>
       </c>
       <c r="AT19">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU19">
         <v>1.59</v>
@@ -4546,7 +4570,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4633,7 +4657,7 @@
         <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
         <v>1.29</v>
@@ -4928,7 +4952,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5501,7 +5525,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5779,10 +5803,10 @@
         <v>1.67</v>
       </c>
       <c r="AS26">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU26">
         <v>0.99</v>
@@ -5883,7 +5907,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -5970,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>0.67</v>
@@ -6161,7 +6185,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT28">
         <v>0.8</v>
@@ -6265,7 +6289,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6355,7 +6379,7 @@
         <v>0.83</v>
       </c>
       <c r="AT29">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU29">
         <v>0.92</v>
@@ -6456,7 +6480,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6546,7 +6570,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU30">
         <v>1.11</v>
@@ -6647,7 +6671,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6734,10 +6758,10 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU31">
         <v>1.67</v>
@@ -6838,7 +6862,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7029,7 +7053,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7116,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT33">
         <v>0.43</v>
@@ -7220,7 +7244,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7307,10 +7331,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT34">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7689,7 +7713,7 @@
         <v>2.33</v>
       </c>
       <c r="AS36">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT36">
         <v>2.17</v>
@@ -7793,7 +7817,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7984,7 +8008,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8074,7 +8098,7 @@
         <v>1.17</v>
       </c>
       <c r="AT38">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU38">
         <v>0.87</v>
@@ -8262,10 +8286,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT39">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU39">
         <v>1.71</v>
@@ -8366,7 +8390,7 @@
         <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8644,10 +8668,10 @@
         <v>1.25</v>
       </c>
       <c r="AS41">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU41">
         <v>1.64</v>
@@ -8748,7 +8772,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8838,7 +8862,7 @@
         <v>1.5</v>
       </c>
       <c r="AT42">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU42">
         <v>1.19</v>
@@ -8939,7 +8963,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9026,10 +9050,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU43">
         <v>1.23</v>
@@ -9130,7 +9154,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9321,7 +9345,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9408,10 +9432,10 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT45">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -9512,7 +9536,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9599,7 +9623,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT46">
         <v>2.2</v>
@@ -9703,7 +9727,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9793,7 +9817,7 @@
         <v>0.83</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU47">
         <v>1.12</v>
@@ -9981,7 +10005,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT48">
         <v>2.17</v>
@@ -10172,7 +10196,7 @@
         <v>0.75</v>
       </c>
       <c r="AS49">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT49">
         <v>0.43</v>
@@ -10276,7 +10300,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10366,7 +10390,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU50">
         <v>1.53</v>
@@ -10467,7 +10491,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10554,7 +10578,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT51">
         <v>0.67</v>
@@ -10748,7 +10772,7 @@
         <v>0.83</v>
       </c>
       <c r="AT52">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU52">
         <v>1.31</v>
@@ -10936,7 +10960,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT53">
         <v>1.29</v>
@@ -11127,7 +11151,7 @@
         <v>0.6</v>
       </c>
       <c r="AS54">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT54">
         <v>0.43</v>
@@ -11318,10 +11342,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT55">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU55">
         <v>1.17</v>
@@ -11613,7 +11637,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11703,7 +11727,7 @@
         <v>1.17</v>
       </c>
       <c r="AT57">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU57">
         <v>1.2</v>
@@ -11804,7 +11828,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -11894,7 +11918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU58">
         <v>1.25</v>
@@ -12082,10 +12106,10 @@
         <v>0.25</v>
       </c>
       <c r="AS59">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT59">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AU59">
         <v>1.4</v>
@@ -12186,7 +12210,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12273,7 +12297,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT60">
         <v>0.67</v>
@@ -12464,10 +12488,10 @@
         <v>2.2</v>
       </c>
       <c r="AS61">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT61">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU61">
         <v>1.58</v>
@@ -12655,10 +12679,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU62">
         <v>1.23</v>
@@ -12759,7 +12783,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -12849,7 +12873,7 @@
         <v>1</v>
       </c>
       <c r="AT63">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AU63">
         <v>1.7</v>
@@ -12950,7 +12974,7 @@
         <v>120</v>
       </c>
       <c r="P64" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13037,10 +13061,10 @@
         <v>0.25</v>
       </c>
       <c r="AS64">
-        <v>2.67</v>
+        <v>2.29</v>
       </c>
       <c r="AT64">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU64">
         <v>1.71</v>
@@ -13141,7 +13165,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13332,7 +13356,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13523,7 +13547,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13714,7 +13738,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14238,6 +14262,1152 @@
       </c>
       <c r="BK70">
         <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>5239123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45104.5</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>125</v>
+      </c>
+      <c r="P71" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q71">
+        <v>6</v>
+      </c>
+      <c r="R71">
+        <v>4</v>
+      </c>
+      <c r="S71">
+        <v>10</v>
+      </c>
+      <c r="T71">
+        <v>2.75</v>
+      </c>
+      <c r="U71">
+        <v>2.05</v>
+      </c>
+      <c r="V71">
+        <v>4.5</v>
+      </c>
+      <c r="W71">
+        <v>1.44</v>
+      </c>
+      <c r="X71">
+        <v>2.63</v>
+      </c>
+      <c r="Y71">
+        <v>3.4</v>
+      </c>
+      <c r="Z71">
+        <v>1.3</v>
+      </c>
+      <c r="AA71">
+        <v>10</v>
+      </c>
+      <c r="AB71">
+        <v>1.06</v>
+      </c>
+      <c r="AC71">
+        <v>1.95</v>
+      </c>
+      <c r="AD71">
+        <v>3.35</v>
+      </c>
+      <c r="AE71">
+        <v>4.15</v>
+      </c>
+      <c r="AF71">
+        <v>1.07</v>
+      </c>
+      <c r="AG71">
+        <v>9.6</v>
+      </c>
+      <c r="AH71">
+        <v>1.39</v>
+      </c>
+      <c r="AI71">
+        <v>3.05</v>
+      </c>
+      <c r="AJ71">
+        <v>2.25</v>
+      </c>
+      <c r="AK71">
+        <v>1.62</v>
+      </c>
+      <c r="AL71">
+        <v>2</v>
+      </c>
+      <c r="AM71">
+        <v>1.75</v>
+      </c>
+      <c r="AN71">
+        <v>1.33</v>
+      </c>
+      <c r="AO71">
+        <v>1.33</v>
+      </c>
+      <c r="AP71">
+        <v>1.83</v>
+      </c>
+      <c r="AQ71">
+        <v>2.5</v>
+      </c>
+      <c r="AR71">
+        <v>1</v>
+      </c>
+      <c r="AS71">
+        <v>2.6</v>
+      </c>
+      <c r="AT71">
+        <v>0.83</v>
+      </c>
+      <c r="AU71">
+        <v>1.76</v>
+      </c>
+      <c r="AV71">
+        <v>1.24</v>
+      </c>
+      <c r="AW71">
+        <v>3</v>
+      </c>
+      <c r="AX71">
+        <v>1.51</v>
+      </c>
+      <c r="AY71">
+        <v>8.5</v>
+      </c>
+      <c r="AZ71">
+        <v>3.07</v>
+      </c>
+      <c r="BA71">
+        <v>1.24</v>
+      </c>
+      <c r="BB71">
+        <v>1.45</v>
+      </c>
+      <c r="BC71">
+        <v>1.8</v>
+      </c>
+      <c r="BD71">
+        <v>2.33</v>
+      </c>
+      <c r="BE71">
+        <v>3.2</v>
+      </c>
+      <c r="BF71">
+        <v>8</v>
+      </c>
+      <c r="BG71">
+        <v>5</v>
+      </c>
+      <c r="BH71">
+        <v>2</v>
+      </c>
+      <c r="BI71">
+        <v>5</v>
+      </c>
+      <c r="BJ71">
+        <v>10</v>
+      </c>
+      <c r="BK71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>5239124</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45104.5</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>65</v>
+      </c>
+      <c r="H72" t="s">
+        <v>67</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>80</v>
+      </c>
+      <c r="P72" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q72">
+        <v>9</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>9</v>
+      </c>
+      <c r="T72">
+        <v>1.95</v>
+      </c>
+      <c r="U72">
+        <v>2.3</v>
+      </c>
+      <c r="V72">
+        <v>7.5</v>
+      </c>
+      <c r="W72">
+        <v>1.36</v>
+      </c>
+      <c r="X72">
+        <v>3</v>
+      </c>
+      <c r="Y72">
+        <v>2.75</v>
+      </c>
+      <c r="Z72">
+        <v>1.4</v>
+      </c>
+      <c r="AA72">
+        <v>8</v>
+      </c>
+      <c r="AB72">
+        <v>1.08</v>
+      </c>
+      <c r="AC72">
+        <v>1.43</v>
+      </c>
+      <c r="AD72">
+        <v>4.45</v>
+      </c>
+      <c r="AE72">
+        <v>7.95</v>
+      </c>
+      <c r="AF72">
+        <v>1.05</v>
+      </c>
+      <c r="AG72">
+        <v>12.5</v>
+      </c>
+      <c r="AH72">
+        <v>1.28</v>
+      </c>
+      <c r="AI72">
+        <v>3.8</v>
+      </c>
+      <c r="AJ72">
+        <v>1.9</v>
+      </c>
+      <c r="AK72">
+        <v>1.87</v>
+      </c>
+      <c r="AL72">
+        <v>2.1</v>
+      </c>
+      <c r="AM72">
+        <v>1.67</v>
+      </c>
+      <c r="AN72">
+        <v>1.08</v>
+      </c>
+      <c r="AO72">
+        <v>1.2</v>
+      </c>
+      <c r="AP72">
+        <v>2.9</v>
+      </c>
+      <c r="AQ72">
+        <v>2.14</v>
+      </c>
+      <c r="AR72">
+        <v>0.2</v>
+      </c>
+      <c r="AS72">
+        <v>1.88</v>
+      </c>
+      <c r="AT72">
+        <v>0.67</v>
+      </c>
+      <c r="AU72">
+        <v>1.58</v>
+      </c>
+      <c r="AV72">
+        <v>1.26</v>
+      </c>
+      <c r="AW72">
+        <v>2.84</v>
+      </c>
+      <c r="AX72">
+        <v>1.34</v>
+      </c>
+      <c r="AY72">
+        <v>9.5</v>
+      </c>
+      <c r="AZ72">
+        <v>4.07</v>
+      </c>
+      <c r="BA72">
+        <v>1.21</v>
+      </c>
+      <c r="BB72">
+        <v>1.38</v>
+      </c>
+      <c r="BC72">
+        <v>1.68</v>
+      </c>
+      <c r="BD72">
+        <v>2.14</v>
+      </c>
+      <c r="BE72">
+        <v>2.88</v>
+      </c>
+      <c r="BF72">
+        <v>6</v>
+      </c>
+      <c r="BG72">
+        <v>5</v>
+      </c>
+      <c r="BH72">
+        <v>6</v>
+      </c>
+      <c r="BI72">
+        <v>2</v>
+      </c>
+      <c r="BJ72">
+        <v>12</v>
+      </c>
+      <c r="BK72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>5239125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45104.5</v>
+      </c>
+      <c r="F73">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>66</v>
+      </c>
+      <c r="H73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73" t="s">
+        <v>123</v>
+      </c>
+      <c r="P73" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q73">
+        <v>9</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>11</v>
+      </c>
+      <c r="T73">
+        <v>2.5</v>
+      </c>
+      <c r="U73">
+        <v>2.1</v>
+      </c>
+      <c r="V73">
+        <v>5</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>2.63</v>
+      </c>
+      <c r="Y73">
+        <v>3.25</v>
+      </c>
+      <c r="Z73">
+        <v>1.33</v>
+      </c>
+      <c r="AA73">
+        <v>10</v>
+      </c>
+      <c r="AB73">
+        <v>1.06</v>
+      </c>
+      <c r="AC73">
+        <v>1.84</v>
+      </c>
+      <c r="AD73">
+        <v>3.55</v>
+      </c>
+      <c r="AE73">
+        <v>4.45</v>
+      </c>
+      <c r="AF73">
+        <v>1.07</v>
+      </c>
+      <c r="AG73">
+        <v>9</v>
+      </c>
+      <c r="AH73">
+        <v>1.38</v>
+      </c>
+      <c r="AI73">
+        <v>3</v>
+      </c>
+      <c r="AJ73">
+        <v>2.15</v>
+      </c>
+      <c r="AK73">
+        <v>1.68</v>
+      </c>
+      <c r="AL73">
+        <v>2</v>
+      </c>
+      <c r="AM73">
+        <v>1.75</v>
+      </c>
+      <c r="AN73">
+        <v>1.22</v>
+      </c>
+      <c r="AO73">
+        <v>1.33</v>
+      </c>
+      <c r="AP73">
+        <v>2.05</v>
+      </c>
+      <c r="AQ73">
+        <v>2.67</v>
+      </c>
+      <c r="AR73">
+        <v>1.83</v>
+      </c>
+      <c r="AS73">
+        <v>2.29</v>
+      </c>
+      <c r="AT73">
+        <v>2</v>
+      </c>
+      <c r="AU73">
+        <v>1.6</v>
+      </c>
+      <c r="AV73">
+        <v>1.32</v>
+      </c>
+      <c r="AW73">
+        <v>2.92</v>
+      </c>
+      <c r="AX73">
+        <v>1.51</v>
+      </c>
+      <c r="AY73">
+        <v>9</v>
+      </c>
+      <c r="AZ73">
+        <v>3.06</v>
+      </c>
+      <c r="BA73">
+        <v>1.17</v>
+      </c>
+      <c r="BB73">
+        <v>1.3</v>
+      </c>
+      <c r="BC73">
+        <v>1.56</v>
+      </c>
+      <c r="BD73">
+        <v>1.95</v>
+      </c>
+      <c r="BE73">
+        <v>2.55</v>
+      </c>
+      <c r="BF73">
+        <v>4</v>
+      </c>
+      <c r="BG73">
+        <v>6</v>
+      </c>
+      <c r="BH73">
+        <v>9</v>
+      </c>
+      <c r="BI73">
+        <v>4</v>
+      </c>
+      <c r="BJ73">
+        <v>13</v>
+      </c>
+      <c r="BK73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>5239126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45104.5</v>
+      </c>
+      <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>69</v>
+      </c>
+      <c r="H74" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>126</v>
+      </c>
+      <c r="P74" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q74">
+        <v>11</v>
+      </c>
+      <c r="R74">
+        <v>5</v>
+      </c>
+      <c r="S74">
+        <v>16</v>
+      </c>
+      <c r="T74">
+        <v>2.63</v>
+      </c>
+      <c r="U74">
+        <v>2.2</v>
+      </c>
+      <c r="V74">
+        <v>4</v>
+      </c>
+      <c r="W74">
+        <v>1.36</v>
+      </c>
+      <c r="X74">
+        <v>3</v>
+      </c>
+      <c r="Y74">
+        <v>2.75</v>
+      </c>
+      <c r="Z74">
+        <v>1.4</v>
+      </c>
+      <c r="AA74">
+        <v>7</v>
+      </c>
+      <c r="AB74">
+        <v>1.1</v>
+      </c>
+      <c r="AC74">
+        <v>2.24</v>
+      </c>
+      <c r="AD74">
+        <v>3.45</v>
+      </c>
+      <c r="AE74">
+        <v>3.15</v>
+      </c>
+      <c r="AF74">
+        <v>1.04</v>
+      </c>
+      <c r="AG74">
+        <v>13</v>
+      </c>
+      <c r="AH74">
+        <v>1.24</v>
+      </c>
+      <c r="AI74">
+        <v>4.1</v>
+      </c>
+      <c r="AJ74">
+        <v>1.9</v>
+      </c>
+      <c r="AK74">
+        <v>1.87</v>
+      </c>
+      <c r="AL74">
+        <v>1.7</v>
+      </c>
+      <c r="AM74">
+        <v>2.05</v>
+      </c>
+      <c r="AN74">
+        <v>1.3</v>
+      </c>
+      <c r="AO74">
+        <v>1.22</v>
+      </c>
+      <c r="AP74">
+        <v>1.75</v>
+      </c>
+      <c r="AQ74">
+        <v>1.33</v>
+      </c>
+      <c r="AR74">
+        <v>1</v>
+      </c>
+      <c r="AS74">
+        <v>1.57</v>
+      </c>
+      <c r="AT74">
+        <v>0.86</v>
+      </c>
+      <c r="AU74">
+        <v>1.27</v>
+      </c>
+      <c r="AV74">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW74">
+        <v>2.21</v>
+      </c>
+      <c r="AX74">
+        <v>1.82</v>
+      </c>
+      <c r="AY74">
+        <v>8</v>
+      </c>
+      <c r="AZ74">
+        <v>2.33</v>
+      </c>
+      <c r="BA74">
+        <v>1.18</v>
+      </c>
+      <c r="BB74">
+        <v>1.34</v>
+      </c>
+      <c r="BC74">
+        <v>1.6</v>
+      </c>
+      <c r="BD74">
+        <v>2</v>
+      </c>
+      <c r="BE74">
+        <v>2.65</v>
+      </c>
+      <c r="BF74">
+        <v>13</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>4</v>
+      </c>
+      <c r="BI74">
+        <v>4</v>
+      </c>
+      <c r="BJ74">
+        <v>17</v>
+      </c>
+      <c r="BK74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>5239127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45104.5</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+      <c r="H75" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>127</v>
+      </c>
+      <c r="P75" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q75">
+        <v>7</v>
+      </c>
+      <c r="R75">
+        <v>3</v>
+      </c>
+      <c r="S75">
+        <v>10</v>
+      </c>
+      <c r="T75">
+        <v>5.5</v>
+      </c>
+      <c r="U75">
+        <v>2.1</v>
+      </c>
+      <c r="V75">
+        <v>2.38</v>
+      </c>
+      <c r="W75">
+        <v>1.44</v>
+      </c>
+      <c r="X75">
+        <v>2.63</v>
+      </c>
+      <c r="Y75">
+        <v>3.25</v>
+      </c>
+      <c r="Z75">
+        <v>1.33</v>
+      </c>
+      <c r="AA75">
+        <v>10</v>
+      </c>
+      <c r="AB75">
+        <v>1.06</v>
+      </c>
+      <c r="AC75">
+        <v>4.95</v>
+      </c>
+      <c r="AD75">
+        <v>3.7</v>
+      </c>
+      <c r="AE75">
+        <v>1.73</v>
+      </c>
+      <c r="AF75">
+        <v>1.07</v>
+      </c>
+      <c r="AG75">
+        <v>9.5</v>
+      </c>
+      <c r="AH75">
+        <v>1.36</v>
+      </c>
+      <c r="AI75">
+        <v>3.15</v>
+      </c>
+      <c r="AJ75">
+        <v>2.2</v>
+      </c>
+      <c r="AK75">
+        <v>1.65</v>
+      </c>
+      <c r="AL75">
+        <v>2.05</v>
+      </c>
+      <c r="AM75">
+        <v>1.7</v>
+      </c>
+      <c r="AN75">
+        <v>2.12</v>
+      </c>
+      <c r="AO75">
+        <v>1.29</v>
+      </c>
+      <c r="AP75">
+        <v>1.17</v>
+      </c>
+      <c r="AQ75">
+        <v>1.4</v>
+      </c>
+      <c r="AR75">
+        <v>1.5</v>
+      </c>
+      <c r="AS75">
+        <v>1.33</v>
+      </c>
+      <c r="AT75">
+        <v>1.43</v>
+      </c>
+      <c r="AU75">
+        <v>1.26</v>
+      </c>
+      <c r="AV75">
+        <v>1.74</v>
+      </c>
+      <c r="AW75">
+        <v>3</v>
+      </c>
+      <c r="AX75">
+        <v>3.49</v>
+      </c>
+      <c r="AY75">
+        <v>9</v>
+      </c>
+      <c r="AZ75">
+        <v>1.41</v>
+      </c>
+      <c r="BA75">
+        <v>1.18</v>
+      </c>
+      <c r="BB75">
+        <v>1.34</v>
+      </c>
+      <c r="BC75">
+        <v>1.6</v>
+      </c>
+      <c r="BD75">
+        <v>2</v>
+      </c>
+      <c r="BE75">
+        <v>2.65</v>
+      </c>
+      <c r="BF75">
+        <v>6</v>
+      </c>
+      <c r="BG75">
+        <v>3</v>
+      </c>
+      <c r="BH75">
+        <v>5</v>
+      </c>
+      <c r="BI75">
+        <v>2</v>
+      </c>
+      <c r="BJ75">
+        <v>11</v>
+      </c>
+      <c r="BK75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>5239128</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45104.5</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s">
+        <v>68</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>128</v>
+      </c>
+      <c r="P76" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q76">
+        <v>4</v>
+      </c>
+      <c r="R76">
+        <v>4</v>
+      </c>
+      <c r="S76">
+        <v>8</v>
+      </c>
+      <c r="T76">
+        <v>2.38</v>
+      </c>
+      <c r="U76">
+        <v>2.1</v>
+      </c>
+      <c r="V76">
+        <v>5.5</v>
+      </c>
+      <c r="W76">
+        <v>1.44</v>
+      </c>
+      <c r="X76">
+        <v>2.63</v>
+      </c>
+      <c r="Y76">
+        <v>3.25</v>
+      </c>
+      <c r="Z76">
+        <v>1.33</v>
+      </c>
+      <c r="AA76">
+        <v>10</v>
+      </c>
+      <c r="AB76">
+        <v>1.06</v>
+      </c>
+      <c r="AC76">
+        <v>1.72</v>
+      </c>
+      <c r="AD76">
+        <v>3.75</v>
+      </c>
+      <c r="AE76">
+        <v>5</v>
+      </c>
+      <c r="AF76">
+        <v>1.04</v>
+      </c>
+      <c r="AG76">
+        <v>7.8</v>
+      </c>
+      <c r="AH76">
+        <v>1.35</v>
+      </c>
+      <c r="AI76">
+        <v>2.88</v>
+      </c>
+      <c r="AJ76">
+        <v>2.25</v>
+      </c>
+      <c r="AK76">
+        <v>1.62</v>
+      </c>
+      <c r="AL76">
+        <v>2.05</v>
+      </c>
+      <c r="AM76">
+        <v>1.7</v>
+      </c>
+      <c r="AN76">
+        <v>1.17</v>
+      </c>
+      <c r="AO76">
+        <v>1.29</v>
+      </c>
+      <c r="AP76">
+        <v>2.1</v>
+      </c>
+      <c r="AQ76">
+        <v>1.17</v>
+      </c>
+      <c r="AR76">
+        <v>0.2</v>
+      </c>
+      <c r="AS76">
+        <v>1.43</v>
+      </c>
+      <c r="AT76">
+        <v>0.17</v>
+      </c>
+      <c r="AU76">
+        <v>1.53</v>
+      </c>
+      <c r="AV76">
+        <v>1.34</v>
+      </c>
+      <c r="AW76">
+        <v>2.87</v>
+      </c>
+      <c r="AX76">
+        <v>1.41</v>
+      </c>
+      <c r="AY76">
+        <v>9</v>
+      </c>
+      <c r="AZ76">
+        <v>3.58</v>
+      </c>
+      <c r="BA76">
+        <v>1.21</v>
+      </c>
+      <c r="BB76">
+        <v>1.38</v>
+      </c>
+      <c r="BC76">
+        <v>1.68</v>
+      </c>
+      <c r="BD76">
+        <v>2.14</v>
+      </c>
+      <c r="BE76">
+        <v>2.88</v>
+      </c>
+      <c r="BF76">
+        <v>6</v>
+      </c>
+      <c r="BG76">
+        <v>5</v>
+      </c>
+      <c r="BH76">
+        <v>8</v>
+      </c>
+      <c r="BI76">
+        <v>5</v>
+      </c>
+      <c r="BJ76">
+        <v>14</v>
+      </c>
+      <c r="BK76">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -403,6 +403,18 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['19', '22', '25']</t>
+  </si>
+  <si>
+    <t>['8', '23', '63']</t>
+  </si>
+  <si>
+    <t>['11', '56', '75']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -527,6 +539,9 @@
   </si>
   <si>
     <t>['8']</t>
+  </si>
+  <si>
+    <t>['8', '17', '61', '69']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK76"/>
+  <dimension ref="A1:BK82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1147,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1222,7 +1237,7 @@
         <v>1.88</v>
       </c>
       <c r="AT2">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1323,7 +1338,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1413,7 +1428,7 @@
         <v>2.29</v>
       </c>
       <c r="AT3">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1514,7 +1529,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1601,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT4">
         <v>0.83</v>
@@ -1792,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT5">
         <v>0.86</v>
@@ -1896,7 +1911,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -2368,7 +2383,7 @@
         <v>1.57</v>
       </c>
       <c r="AT8">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU8">
         <v>1.45</v>
@@ -2469,7 +2484,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2660,7 +2675,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2747,10 +2762,10 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT10">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2938,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3129,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT12">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU12">
         <v>0.87</v>
@@ -3233,7 +3248,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3320,7 +3335,7 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT13">
         <v>0.86</v>
@@ -3997,7 +4012,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4379,7 +4394,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4570,7 +4585,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4851,7 +4866,7 @@
         <v>2.43</v>
       </c>
       <c r="AT21">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU21">
         <v>1.41</v>
@@ -4952,7 +4967,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5039,10 +5054,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT22">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5230,7 +5245,7 @@
         <v>1.33</v>
       </c>
       <c r="AS23">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT23">
         <v>1.29</v>
@@ -5421,10 +5436,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT24">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU24">
         <v>1.11</v>
@@ -5525,7 +5540,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5612,10 +5627,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT25">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU25">
         <v>1.35</v>
@@ -5803,7 +5818,7 @@
         <v>1.67</v>
       </c>
       <c r="AS26">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT26">
         <v>0.86</v>
@@ -5907,7 +5922,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -5997,7 +6012,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU27">
         <v>1.05</v>
@@ -6188,7 +6203,7 @@
         <v>2.29</v>
       </c>
       <c r="AT28">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU28">
         <v>1.57</v>
@@ -6289,7 +6304,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6376,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT29">
         <v>0.67</v>
@@ -6480,7 +6495,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6567,7 +6582,7 @@
         <v>1.67</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT30">
         <v>2</v>
@@ -6671,7 +6686,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6761,7 +6776,7 @@
         <v>1.88</v>
       </c>
       <c r="AT31">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU31">
         <v>1.67</v>
@@ -6862,7 +6877,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -6949,10 +6964,10 @@
         <v>2</v>
       </c>
       <c r="AS32">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT32">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU32">
         <v>0.5600000000000001</v>
@@ -7053,7 +7068,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7140,10 +7155,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT33">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU33">
         <v>1.65</v>
@@ -7244,7 +7259,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7334,7 +7349,7 @@
         <v>1.57</v>
       </c>
       <c r="AT34">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU34">
         <v>1.16</v>
@@ -7522,10 +7537,10 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT35">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7713,10 +7728,10 @@
         <v>2.33</v>
       </c>
       <c r="AS36">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT36">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU36">
         <v>1.49</v>
@@ -7817,7 +7832,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7907,7 +7922,7 @@
         <v>2.43</v>
       </c>
       <c r="AT37">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU37">
         <v>1.44</v>
@@ -8008,7 +8023,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8095,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT38">
         <v>0.17</v>
@@ -8390,7 +8405,7 @@
         <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8477,10 +8492,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT40">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU40">
         <v>1.18</v>
@@ -8772,7 +8787,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8859,10 +8874,10 @@
         <v>1.33</v>
       </c>
       <c r="AS42">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT42">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU42">
         <v>1.19</v>
@@ -8963,7 +8978,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9154,7 +9169,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9241,7 +9256,7 @@
         <v>1.25</v>
       </c>
       <c r="AS44">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT44">
         <v>1.29</v>
@@ -9345,7 +9360,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9536,7 +9551,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9626,7 +9641,7 @@
         <v>1.57</v>
       </c>
       <c r="AT46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>1.19</v>
@@ -9727,7 +9742,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9814,7 +9829,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT47">
         <v>0.83</v>
@@ -10008,7 +10023,7 @@
         <v>2.29</v>
       </c>
       <c r="AT48">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10199,7 +10214,7 @@
         <v>2.6</v>
       </c>
       <c r="AT49">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU49">
         <v>1.69</v>
@@ -10300,7 +10315,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10387,7 +10402,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT50">
         <v>2</v>
@@ -10491,7 +10506,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10578,10 +10593,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT51">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU51">
         <v>1.4</v>
@@ -10769,10 +10784,10 @@
         <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT52">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU52">
         <v>1.31</v>
@@ -11154,7 +11169,7 @@
         <v>1.88</v>
       </c>
       <c r="AT54">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU54">
         <v>1.65</v>
@@ -11536,7 +11551,7 @@
         <v>2.43</v>
       </c>
       <c r="AT56">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU56">
         <v>1.53</v>
@@ -11637,7 +11652,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11724,7 +11739,7 @@
         <v>0.33</v>
       </c>
       <c r="AS57">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT57">
         <v>0.67</v>
@@ -11828,7 +11843,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -11915,7 +11930,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT58">
         <v>0.86</v>
@@ -12106,7 +12121,7 @@
         <v>0.25</v>
       </c>
       <c r="AS59">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT59">
         <v>0.67</v>
@@ -12210,7 +12225,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12300,7 +12315,7 @@
         <v>2.6</v>
       </c>
       <c r="AT60">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU60">
         <v>1.9</v>
@@ -12783,7 +12798,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -12870,10 +12885,10 @@
         <v>1.2</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT63">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU63">
         <v>1.7</v>
@@ -12974,7 +12989,7 @@
         <v>120</v>
       </c>
       <c r="P64" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13165,7 +13180,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13252,7 +13267,7 @@
         <v>1.33</v>
       </c>
       <c r="AS65">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT65">
         <v>1.29</v>
@@ -13356,7 +13371,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13443,10 +13458,10 @@
         <v>0.75</v>
       </c>
       <c r="AS66">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT66">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AU66">
         <v>1.18</v>
@@ -13547,7 +13562,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13634,10 +13649,10 @@
         <v>2</v>
       </c>
       <c r="AS67">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT67">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU67">
         <v>1.17</v>
@@ -13738,7 +13753,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13825,10 +13840,10 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AT68">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU68">
         <v>1.17</v>
@@ -14019,7 +14034,7 @@
         <v>2.43</v>
       </c>
       <c r="AT69">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU69">
         <v>1.49</v>
@@ -14207,10 +14222,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT70">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU70">
         <v>1.54</v>
@@ -14311,7 +14326,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14502,7 +14517,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14693,7 +14708,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -15075,7 +15090,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15165,7 +15180,7 @@
         <v>1.33</v>
       </c>
       <c r="AT75">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU75">
         <v>1.26</v>
@@ -15353,7 +15368,7 @@
         <v>0.2</v>
       </c>
       <c r="AS76">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT76">
         <v>0.17</v>
@@ -15408,6 +15423,1152 @@
       </c>
       <c r="BK76">
         <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>5239129</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45108.33333333334</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>129</v>
+      </c>
+      <c r="P77" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>11</v>
+      </c>
+      <c r="S77">
+        <v>14</v>
+      </c>
+      <c r="T77">
+        <v>3.8</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77">
+        <v>1.5</v>
+      </c>
+      <c r="X77">
+        <v>2.4</v>
+      </c>
+      <c r="Y77">
+        <v>3.3</v>
+      </c>
+      <c r="Z77">
+        <v>1.29</v>
+      </c>
+      <c r="AA77">
+        <v>11</v>
+      </c>
+      <c r="AB77">
+        <v>1.05</v>
+      </c>
+      <c r="AC77">
+        <v>3.38</v>
+      </c>
+      <c r="AD77">
+        <v>3.15</v>
+      </c>
+      <c r="AE77">
+        <v>2.12</v>
+      </c>
+      <c r="AF77">
+        <v>1.08</v>
+      </c>
+      <c r="AG77">
+        <v>6.5</v>
+      </c>
+      <c r="AH77">
+        <v>1.44</v>
+      </c>
+      <c r="AI77">
+        <v>2.6</v>
+      </c>
+      <c r="AJ77">
+        <v>2.36</v>
+      </c>
+      <c r="AK77">
+        <v>1.52</v>
+      </c>
+      <c r="AL77">
+        <v>2</v>
+      </c>
+      <c r="AM77">
+        <v>1.73</v>
+      </c>
+      <c r="AN77">
+        <v>1.6</v>
+      </c>
+      <c r="AO77">
+        <v>1.36</v>
+      </c>
+      <c r="AP77">
+        <v>1.35</v>
+      </c>
+      <c r="AQ77">
+        <v>1.43</v>
+      </c>
+      <c r="AR77">
+        <v>1.43</v>
+      </c>
+      <c r="AS77">
+        <v>1.38</v>
+      </c>
+      <c r="AT77">
+        <v>1.38</v>
+      </c>
+      <c r="AU77">
+        <v>1.56</v>
+      </c>
+      <c r="AV77">
+        <v>1.63</v>
+      </c>
+      <c r="AW77">
+        <v>3.19</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+      <c r="AZ77">
+        <v>0</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>0</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>6</v>
+      </c>
+      <c r="BG77">
+        <v>4</v>
+      </c>
+      <c r="BH77">
+        <v>2</v>
+      </c>
+      <c r="BI77">
+        <v>6</v>
+      </c>
+      <c r="BJ77">
+        <v>8</v>
+      </c>
+      <c r="BK77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>5239132</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45108.45833333334</v>
+      </c>
+      <c r="F78">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>71</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" t="s">
+        <v>130</v>
+      </c>
+      <c r="P78" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q78">
+        <v>7</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>9</v>
+      </c>
+      <c r="T78">
+        <v>2.8</v>
+      </c>
+      <c r="U78">
+        <v>2.15</v>
+      </c>
+      <c r="V78">
+        <v>3.6</v>
+      </c>
+      <c r="W78">
+        <v>1.38</v>
+      </c>
+      <c r="X78">
+        <v>2.8</v>
+      </c>
+      <c r="Y78">
+        <v>2.7</v>
+      </c>
+      <c r="Z78">
+        <v>1.4</v>
+      </c>
+      <c r="AA78">
+        <v>6</v>
+      </c>
+      <c r="AB78">
+        <v>1.09</v>
+      </c>
+      <c r="AC78">
+        <v>2.16</v>
+      </c>
+      <c r="AD78">
+        <v>3.2</v>
+      </c>
+      <c r="AE78">
+        <v>3.15</v>
+      </c>
+      <c r="AF78">
+        <v>1.07</v>
+      </c>
+      <c r="AG78">
+        <v>7</v>
+      </c>
+      <c r="AH78">
+        <v>1.29</v>
+      </c>
+      <c r="AI78">
+        <v>3.3</v>
+      </c>
+      <c r="AJ78">
+        <v>1.94</v>
+      </c>
+      <c r="AK78">
+        <v>1.78</v>
+      </c>
+      <c r="AL78">
+        <v>1.73</v>
+      </c>
+      <c r="AM78">
+        <v>2</v>
+      </c>
+      <c r="AN78">
+        <v>1.38</v>
+      </c>
+      <c r="AO78">
+        <v>1.33</v>
+      </c>
+      <c r="AP78">
+        <v>1.62</v>
+      </c>
+      <c r="AQ78">
+        <v>1.17</v>
+      </c>
+      <c r="AR78">
+        <v>0.43</v>
+      </c>
+      <c r="AS78">
+        <v>1.43</v>
+      </c>
+      <c r="AT78">
+        <v>0.38</v>
+      </c>
+      <c r="AU78">
+        <v>1.13</v>
+      </c>
+      <c r="AV78">
+        <v>1.13</v>
+      </c>
+      <c r="AW78">
+        <v>2.26</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+      <c r="AZ78">
+        <v>0</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>0</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>6</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>1</v>
+      </c>
+      <c r="BI78">
+        <v>3</v>
+      </c>
+      <c r="BJ78">
+        <v>7</v>
+      </c>
+      <c r="BK78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>5239130</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45108.45833333334</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s">
+        <v>66</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79" t="s">
+        <v>129</v>
+      </c>
+      <c r="P79" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q79">
+        <v>4</v>
+      </c>
+      <c r="R79">
+        <v>8</v>
+      </c>
+      <c r="S79">
+        <v>12</v>
+      </c>
+      <c r="T79">
+        <v>3.6</v>
+      </c>
+      <c r="U79">
+        <v>1.95</v>
+      </c>
+      <c r="V79">
+        <v>3.2</v>
+      </c>
+      <c r="W79">
+        <v>1.52</v>
+      </c>
+      <c r="X79">
+        <v>2.4</v>
+      </c>
+      <c r="Y79">
+        <v>3.3</v>
+      </c>
+      <c r="Z79">
+        <v>1.28</v>
+      </c>
+      <c r="AA79">
+        <v>10.5</v>
+      </c>
+      <c r="AB79">
+        <v>1.05</v>
+      </c>
+      <c r="AC79">
+        <v>2.77</v>
+      </c>
+      <c r="AD79">
+        <v>3.15</v>
+      </c>
+      <c r="AE79">
+        <v>2.4</v>
+      </c>
+      <c r="AF79">
+        <v>1.09</v>
+      </c>
+      <c r="AG79">
+        <v>8.25</v>
+      </c>
+      <c r="AH79">
+        <v>1.44</v>
+      </c>
+      <c r="AI79">
+        <v>2.81</v>
+      </c>
+      <c r="AJ79">
+        <v>2.02</v>
+      </c>
+      <c r="AK79">
+        <v>1.73</v>
+      </c>
+      <c r="AL79">
+        <v>2</v>
+      </c>
+      <c r="AM79">
+        <v>1.78</v>
+      </c>
+      <c r="AN79">
+        <v>1.52</v>
+      </c>
+      <c r="AO79">
+        <v>1.35</v>
+      </c>
+      <c r="AP79">
+        <v>1.42</v>
+      </c>
+      <c r="AQ79">
+        <v>1.5</v>
+      </c>
+      <c r="AR79">
+        <v>2.2</v>
+      </c>
+      <c r="AS79">
+        <v>1.43</v>
+      </c>
+      <c r="AT79">
+        <v>2</v>
+      </c>
+      <c r="AU79">
+        <v>1.28</v>
+      </c>
+      <c r="AV79">
+        <v>1.34</v>
+      </c>
+      <c r="AW79">
+        <v>2.62</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
+      <c r="AZ79">
+        <v>0</v>
+      </c>
+      <c r="BA79">
+        <v>0</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>0</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>3</v>
+      </c>
+      <c r="BG79">
+        <v>4</v>
+      </c>
+      <c r="BH79">
+        <v>3</v>
+      </c>
+      <c r="BI79">
+        <v>6</v>
+      </c>
+      <c r="BJ79">
+        <v>6</v>
+      </c>
+      <c r="BK79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>5239131</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45108.45833333334</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" t="s">
+        <v>76</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80" t="s">
+        <v>131</v>
+      </c>
+      <c r="P80" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q80">
+        <v>8</v>
+      </c>
+      <c r="R80">
+        <v>6</v>
+      </c>
+      <c r="S80">
+        <v>14</v>
+      </c>
+      <c r="T80">
+        <v>4.07</v>
+      </c>
+      <c r="U80">
+        <v>2.04</v>
+      </c>
+      <c r="V80">
+        <v>2.86</v>
+      </c>
+      <c r="W80">
+        <v>1.46</v>
+      </c>
+      <c r="X80">
+        <v>2.61</v>
+      </c>
+      <c r="Y80">
+        <v>3.16</v>
+      </c>
+      <c r="Z80">
+        <v>1.33</v>
+      </c>
+      <c r="AA80">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB80">
+        <v>1.06</v>
+      </c>
+      <c r="AC80">
+        <v>3</v>
+      </c>
+      <c r="AD80">
+        <v>3.02</v>
+      </c>
+      <c r="AE80">
+        <v>2.1</v>
+      </c>
+      <c r="AF80">
+        <v>1.04</v>
+      </c>
+      <c r="AG80">
+        <v>7.8</v>
+      </c>
+      <c r="AH80">
+        <v>1.36</v>
+      </c>
+      <c r="AI80">
+        <v>2.83</v>
+      </c>
+      <c r="AJ80">
+        <v>2.2</v>
+      </c>
+      <c r="AK80">
+        <v>1.68</v>
+      </c>
+      <c r="AL80">
+        <v>1.89</v>
+      </c>
+      <c r="AM80">
+        <v>1.87</v>
+      </c>
+      <c r="AN80">
+        <v>1.65</v>
+      </c>
+      <c r="AO80">
+        <v>1.33</v>
+      </c>
+      <c r="AP80">
+        <v>1.33</v>
+      </c>
+      <c r="AQ80">
+        <v>0.83</v>
+      </c>
+      <c r="AR80">
+        <v>0.8</v>
+      </c>
+      <c r="AS80">
+        <v>1.14</v>
+      </c>
+      <c r="AT80">
+        <v>0.67</v>
+      </c>
+      <c r="AU80">
+        <v>1.2</v>
+      </c>
+      <c r="AV80">
+        <v>1.41</v>
+      </c>
+      <c r="AW80">
+        <v>2.61</v>
+      </c>
+      <c r="AX80">
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <v>0</v>
+      </c>
+      <c r="AZ80">
+        <v>0</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>0</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>0</v>
+      </c>
+      <c r="BF80">
+        <v>8</v>
+      </c>
+      <c r="BG80">
+        <v>3</v>
+      </c>
+      <c r="BH80">
+        <v>5</v>
+      </c>
+      <c r="BI80">
+        <v>4</v>
+      </c>
+      <c r="BJ80">
+        <v>13</v>
+      </c>
+      <c r="BK80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>5239133</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45108.52083333334</v>
+      </c>
+      <c r="F81">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>67</v>
+      </c>
+      <c r="H81" t="s">
+        <v>69</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>80</v>
+      </c>
+      <c r="P81" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q81">
+        <v>3</v>
+      </c>
+      <c r="R81">
+        <v>5</v>
+      </c>
+      <c r="S81">
+        <v>8</v>
+      </c>
+      <c r="T81">
+        <v>2.97</v>
+      </c>
+      <c r="U81">
+        <v>2.18</v>
+      </c>
+      <c r="V81">
+        <v>3.46</v>
+      </c>
+      <c r="W81">
+        <v>1.36</v>
+      </c>
+      <c r="X81">
+        <v>3</v>
+      </c>
+      <c r="Y81">
+        <v>2.68</v>
+      </c>
+      <c r="Z81">
+        <v>1.44</v>
+      </c>
+      <c r="AA81">
+        <v>6.6</v>
+      </c>
+      <c r="AB81">
+        <v>1.09</v>
+      </c>
+      <c r="AC81">
+        <v>2.47</v>
+      </c>
+      <c r="AD81">
+        <v>3.5</v>
+      </c>
+      <c r="AE81">
+        <v>2.73</v>
+      </c>
+      <c r="AF81">
+        <v>1.05</v>
+      </c>
+      <c r="AG81">
+        <v>13</v>
+      </c>
+      <c r="AH81">
+        <v>1.26</v>
+      </c>
+      <c r="AI81">
+        <v>3.88</v>
+      </c>
+      <c r="AJ81">
+        <v>1.87</v>
+      </c>
+      <c r="AK81">
+        <v>1.9</v>
+      </c>
+      <c r="AL81">
+        <v>1.68</v>
+      </c>
+      <c r="AM81">
+        <v>2.2</v>
+      </c>
+      <c r="AN81">
+        <v>1.42</v>
+      </c>
+      <c r="AO81">
+        <v>1.32</v>
+      </c>
+      <c r="AP81">
+        <v>1.58</v>
+      </c>
+      <c r="AQ81">
+        <v>0.83</v>
+      </c>
+      <c r="AR81">
+        <v>0.67</v>
+      </c>
+      <c r="AS81">
+        <v>0.86</v>
+      </c>
+      <c r="AT81">
+        <v>0.71</v>
+      </c>
+      <c r="AU81">
+        <v>1.18</v>
+      </c>
+      <c r="AV81">
+        <v>1.29</v>
+      </c>
+      <c r="AW81">
+        <v>2.47</v>
+      </c>
+      <c r="AX81">
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <v>0</v>
+      </c>
+      <c r="AZ81">
+        <v>0</v>
+      </c>
+      <c r="BA81">
+        <v>0</v>
+      </c>
+      <c r="BB81">
+        <v>0</v>
+      </c>
+      <c r="BC81">
+        <v>0</v>
+      </c>
+      <c r="BD81">
+        <v>0</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>6</v>
+      </c>
+      <c r="BG81">
+        <v>3</v>
+      </c>
+      <c r="BH81">
+        <v>8</v>
+      </c>
+      <c r="BI81">
+        <v>6</v>
+      </c>
+      <c r="BJ81">
+        <v>14</v>
+      </c>
+      <c r="BK81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>5239134</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45108.54166666666</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" t="s">
+        <v>65</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>3</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>7</v>
+      </c>
+      <c r="O82" t="s">
+        <v>132</v>
+      </c>
+      <c r="P82" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q82">
+        <v>3</v>
+      </c>
+      <c r="R82">
+        <v>5</v>
+      </c>
+      <c r="S82">
+        <v>8</v>
+      </c>
+      <c r="T82">
+        <v>5.25</v>
+      </c>
+      <c r="U82">
+        <v>2.1</v>
+      </c>
+      <c r="V82">
+        <v>2.25</v>
+      </c>
+      <c r="W82">
+        <v>1.42</v>
+      </c>
+      <c r="X82">
+        <v>2.7</v>
+      </c>
+      <c r="Y82">
+        <v>2.9</v>
+      </c>
+      <c r="Z82">
+        <v>1.35</v>
+      </c>
+      <c r="AA82">
+        <v>8.25</v>
+      </c>
+      <c r="AB82">
+        <v>1.07</v>
+      </c>
+      <c r="AC82">
+        <v>5.3</v>
+      </c>
+      <c r="AD82">
+        <v>3.75</v>
+      </c>
+      <c r="AE82">
+        <v>1.66</v>
+      </c>
+      <c r="AF82">
+        <v>1.06</v>
+      </c>
+      <c r="AG82">
+        <v>10.5</v>
+      </c>
+      <c r="AH82">
+        <v>1.34</v>
+      </c>
+      <c r="AI82">
+        <v>3.3</v>
+      </c>
+      <c r="AJ82">
+        <v>2.05</v>
+      </c>
+      <c r="AK82">
+        <v>1.8</v>
+      </c>
+      <c r="AL82">
+        <v>2</v>
+      </c>
+      <c r="AM82">
+        <v>1.8</v>
+      </c>
+      <c r="AN82">
+        <v>2.1</v>
+      </c>
+      <c r="AO82">
+        <v>1.28</v>
+      </c>
+      <c r="AP82">
+        <v>1.19</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>2.17</v>
+      </c>
+      <c r="AS82">
+        <v>0.8</v>
+      </c>
+      <c r="AT82">
+        <v>2.29</v>
+      </c>
+      <c r="AU82">
+        <v>1.42</v>
+      </c>
+      <c r="AV82">
+        <v>1.44</v>
+      </c>
+      <c r="AW82">
+        <v>2.86</v>
+      </c>
+      <c r="AX82">
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <v>0</v>
+      </c>
+      <c r="AZ82">
+        <v>0</v>
+      </c>
+      <c r="BA82">
+        <v>0</v>
+      </c>
+      <c r="BB82">
+        <v>0</v>
+      </c>
+      <c r="BC82">
+        <v>0</v>
+      </c>
+      <c r="BD82">
+        <v>0</v>
+      </c>
+      <c r="BE82">
+        <v>0</v>
+      </c>
+      <c r="BF82">
+        <v>6</v>
+      </c>
+      <c r="BG82">
+        <v>10</v>
+      </c>
+      <c r="BH82">
+        <v>1</v>
+      </c>
+      <c r="BI82">
+        <v>6</v>
+      </c>
+      <c r="BJ82">
+        <v>7</v>
+      </c>
+      <c r="BK82">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Finland Veikkausliiga_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,15 @@
     <t>['11', '56', '75']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['16', '40']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['12', '73']</t>
   </si>
   <si>
@@ -475,9 +484,6 @@
     <t>['6']</t>
   </si>
   <si>
-    <t>['25']</t>
-  </si>
-  <si>
     <t>['90+4']</t>
   </si>
   <si>
@@ -542,6 +548,15 @@
   </si>
   <si>
     <t>['8', '17', '61', '69']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['3', '25']</t>
+  </si>
+  <si>
+    <t>['41', '54']</t>
   </si>
 </sst>
 </file>
@@ -903,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK82"/>
+  <dimension ref="A1:BK88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1147,7 +1162,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -1234,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1338,7 +1353,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q3">
         <v>7</v>
@@ -1425,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT3">
         <v>0.38</v>
@@ -1529,7 +1544,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1616,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
+        <v>0.75</v>
+      </c>
+      <c r="AT4">
         <v>0.86</v>
-      </c>
-      <c r="AT4">
-        <v>0.83</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1810,7 +1825,7 @@
         <v>1.14</v>
       </c>
       <c r="AT5">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1911,7 +1926,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1998,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2189,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT7">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2380,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT8">
         <v>2.29</v>
@@ -2484,7 +2499,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2571,10 +2586,10 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2675,7 +2690,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2765,7 +2780,7 @@
         <v>1.43</v>
       </c>
       <c r="AT10">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3248,7 +3263,7 @@
         <v>84</v>
       </c>
       <c r="P13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q13">
         <v>7</v>
@@ -3335,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT13">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU13">
         <v>0.97</v>
@@ -3526,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT14">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU14">
         <v>2.23</v>
@@ -3717,10 +3732,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT15">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU15">
         <v>1.36</v>
@@ -3908,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="AS16">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT16">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU16">
         <v>1.33</v>
@@ -4012,7 +4027,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4099,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT17">
         <v>0.67</v>
@@ -4290,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT18">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU18">
         <v>1.67</v>
@@ -4394,7 +4409,7 @@
         <v>88</v>
       </c>
       <c r="P19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4481,10 +4496,10 @@
         <v>2</v>
       </c>
       <c r="AS19">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT19">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU19">
         <v>1.59</v>
@@ -4585,7 +4600,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4672,10 +4687,10 @@
         <v>1.5</v>
       </c>
       <c r="AS20">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT20">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU20">
         <v>1.1</v>
@@ -4863,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT21">
         <v>0.38</v>
@@ -4967,7 +4982,7 @@
         <v>80</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5248,7 +5263,7 @@
         <v>1.14</v>
       </c>
       <c r="AT23">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU23">
         <v>0.8</v>
@@ -5540,7 +5555,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5627,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT25">
         <v>2.29</v>
@@ -5821,7 +5836,7 @@
         <v>1.38</v>
       </c>
       <c r="AT26">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU26">
         <v>0.99</v>
@@ -5922,7 +5937,7 @@
         <v>93</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6009,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT27">
         <v>0.71</v>
@@ -6200,10 +6215,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT28">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU28">
         <v>1.57</v>
@@ -6304,7 +6319,7 @@
         <v>95</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6495,7 +6510,7 @@
         <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6585,7 +6600,7 @@
         <v>1.43</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU30">
         <v>1.11</v>
@@ -6686,7 +6701,7 @@
         <v>97</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6773,7 +6788,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT31">
         <v>1.38</v>
@@ -6877,7 +6892,7 @@
         <v>80</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7068,7 +7083,7 @@
         <v>80</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>6</v>
@@ -7259,7 +7274,7 @@
         <v>98</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7346,7 +7361,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
         <v>1.38</v>
@@ -7832,7 +7847,7 @@
         <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -7919,10 +7934,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT37">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU37">
         <v>1.44</v>
@@ -8023,7 +8038,7 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8113,7 +8128,7 @@
         <v>1.43</v>
       </c>
       <c r="AT38">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU38">
         <v>0.87</v>
@@ -8301,10 +8316,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT39">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU39">
         <v>1.71</v>
@@ -8405,7 +8420,7 @@
         <v>102</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8492,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT40">
         <v>0.38</v>
@@ -8683,10 +8698,10 @@
         <v>1.25</v>
       </c>
       <c r="AS41">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT41">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU41">
         <v>1.64</v>
@@ -8787,7 +8802,7 @@
         <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>5</v>
@@ -8978,7 +8993,7 @@
         <v>105</v>
       </c>
       <c r="P43" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9065,10 +9080,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT43">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU43">
         <v>1.23</v>
@@ -9169,7 +9184,7 @@
         <v>106</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9259,7 +9274,7 @@
         <v>1.43</v>
       </c>
       <c r="AT44">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU44">
         <v>1.19</v>
@@ -9360,7 +9375,7 @@
         <v>107</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9551,7 +9566,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q46">
         <v>8</v>
@@ -9638,7 +9653,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
         <v>2</v>
@@ -9742,7 +9757,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -9832,7 +9847,7 @@
         <v>1.14</v>
       </c>
       <c r="AT47">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU47">
         <v>1.12</v>
@@ -10020,7 +10035,7 @@
         <v>2.5</v>
       </c>
       <c r="AS48">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT48">
         <v>2.29</v>
@@ -10315,7 +10330,7 @@
         <v>110</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10405,7 +10420,7 @@
         <v>0.8</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU50">
         <v>1.53</v>
@@ -10506,7 +10521,7 @@
         <v>80</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10784,7 +10799,7 @@
         <v>1.25</v>
       </c>
       <c r="AS52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT52">
         <v>1.38</v>
@@ -10978,7 +10993,7 @@
         <v>2.6</v>
       </c>
       <c r="AT53">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU53">
         <v>1.94</v>
@@ -11166,7 +11181,7 @@
         <v>0.6</v>
       </c>
       <c r="AS54">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT54">
         <v>0.38</v>
@@ -11357,10 +11372,10 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT55">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU55">
         <v>1.17</v>
@@ -11548,7 +11563,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT56">
         <v>2</v>
@@ -11652,7 +11667,7 @@
         <v>114</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>1</v>
@@ -11843,7 +11858,7 @@
         <v>115</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -11933,7 +11948,7 @@
         <v>1.43</v>
       </c>
       <c r="AT58">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU58">
         <v>1.25</v>
@@ -12225,7 +12240,7 @@
         <v>111</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12503,10 +12518,10 @@
         <v>2.2</v>
       </c>
       <c r="AS61">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT61">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU61">
         <v>1.58</v>
@@ -12694,10 +12709,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT62">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU62">
         <v>1.23</v>
@@ -12798,7 +12813,7 @@
         <v>119</v>
       </c>
       <c r="P63" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -12989,7 +13004,7 @@
         <v>120</v>
       </c>
       <c r="P64" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13076,10 +13091,10 @@
         <v>0.25</v>
       </c>
       <c r="AS64">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT64">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU64">
         <v>1.71</v>
@@ -13180,7 +13195,7 @@
         <v>121</v>
       </c>
       <c r="P65" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13270,7 +13285,7 @@
         <v>1.43</v>
       </c>
       <c r="AT65">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU65">
         <v>1.27</v>
@@ -13371,7 +13386,7 @@
         <v>122</v>
       </c>
       <c r="P66" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13461,7 +13476,7 @@
         <v>1.43</v>
       </c>
       <c r="AT66">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU66">
         <v>1.18</v>
@@ -13562,7 +13577,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q67">
         <v>4</v>
@@ -13753,7 +13768,7 @@
         <v>80</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13840,7 +13855,7 @@
         <v>2</v>
       </c>
       <c r="AS68">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT68">
         <v>2</v>
@@ -14031,7 +14046,7 @@
         <v>0.8</v>
       </c>
       <c r="AS69">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AT69">
         <v>0.71</v>
@@ -14326,7 +14341,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14416,7 +14431,7 @@
         <v>2.6</v>
       </c>
       <c r="AT71">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AU71">
         <v>1.76</v>
@@ -14517,7 +14532,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q72">
         <v>9</v>
@@ -14604,7 +14619,7 @@
         <v>0.2</v>
       </c>
       <c r="AS72">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT72">
         <v>0.67</v>
@@ -14708,7 +14723,7 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q73">
         <v>9</v>
@@ -14795,10 +14810,10 @@
         <v>1.83</v>
       </c>
       <c r="AS73">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT73">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AU73">
         <v>1.6</v>
@@ -14986,10 +15001,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT74">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU74">
         <v>1.27</v>
@@ -15090,7 +15105,7 @@
         <v>127</v>
       </c>
       <c r="P75" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q75">
         <v>7</v>
@@ -15177,7 +15192,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AT75">
         <v>1.38</v>
@@ -15371,7 +15386,7 @@
         <v>1.38</v>
       </c>
       <c r="AT76">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AU76">
         <v>1.53</v>
@@ -15854,7 +15869,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q79">
         <v>4</v>
@@ -16135,7 +16150,7 @@
         <v>1.14</v>
       </c>
       <c r="AT80">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AU80">
         <v>1.2</v>
@@ -16323,7 +16338,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AT81">
         <v>0.71</v>
@@ -16427,7 +16442,7 @@
         <v>132</v>
       </c>
       <c r="P82" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -16569,6 +16584,1152 @@
       </c>
       <c r="BK82">
         <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>5239135</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45115.33333333334</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>70</v>
+      </c>
+      <c r="H83" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>80</v>
+      </c>
+      <c r="P83" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q83">
+        <v>10</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>13</v>
+      </c>
+      <c r="T83">
+        <v>1.83</v>
+      </c>
+      <c r="U83">
+        <v>2.38</v>
+      </c>
+      <c r="V83">
+        <v>8.5</v>
+      </c>
+      <c r="W83">
+        <v>1.36</v>
+      </c>
+      <c r="X83">
+        <v>3</v>
+      </c>
+      <c r="Y83">
+        <v>2.75</v>
+      </c>
+      <c r="Z83">
+        <v>1.4</v>
+      </c>
+      <c r="AA83">
+        <v>7</v>
+      </c>
+      <c r="AB83">
+        <v>1.1</v>
+      </c>
+      <c r="AC83">
+        <v>1.3</v>
+      </c>
+      <c r="AD83">
+        <v>4.5</v>
+      </c>
+      <c r="AE83">
+        <v>9</v>
+      </c>
+      <c r="AF83">
+        <v>1.03</v>
+      </c>
+      <c r="AG83">
+        <v>14</v>
+      </c>
+      <c r="AH83">
+        <v>1.23</v>
+      </c>
+      <c r="AI83">
+        <v>3.75</v>
+      </c>
+      <c r="AJ83">
+        <v>1.73</v>
+      </c>
+      <c r="AK83">
+        <v>2</v>
+      </c>
+      <c r="AL83">
+        <v>2.25</v>
+      </c>
+      <c r="AM83">
+        <v>1.57</v>
+      </c>
+      <c r="AN83">
+        <v>1.07</v>
+      </c>
+      <c r="AO83">
+        <v>1.17</v>
+      </c>
+      <c r="AP83">
+        <v>3.1</v>
+      </c>
+      <c r="AQ83">
+        <v>2.43</v>
+      </c>
+      <c r="AR83">
+        <v>0.86</v>
+      </c>
+      <c r="AS83">
+        <v>2.13</v>
+      </c>
+      <c r="AT83">
+        <v>1.13</v>
+      </c>
+      <c r="AU83">
+        <v>1.51</v>
+      </c>
+      <c r="AV83">
+        <v>0.89</v>
+      </c>
+      <c r="AW83">
+        <v>2.4</v>
+      </c>
+      <c r="AX83">
+        <v>1.26</v>
+      </c>
+      <c r="AY83">
+        <v>10</v>
+      </c>
+      <c r="AZ83">
+        <v>4.65</v>
+      </c>
+      <c r="BA83">
+        <v>1.23</v>
+      </c>
+      <c r="BB83">
+        <v>1.42</v>
+      </c>
+      <c r="BC83">
+        <v>1.7</v>
+      </c>
+      <c r="BD83">
+        <v>2.23</v>
+      </c>
+      <c r="BE83">
+        <v>3.05</v>
+      </c>
+      <c r="BF83">
+        <v>4</v>
+      </c>
+      <c r="BG83">
+        <v>5</v>
+      </c>
+      <c r="BH83">
+        <v>5</v>
+      </c>
+      <c r="BI83">
+        <v>1</v>
+      </c>
+      <c r="BJ83">
+        <v>9</v>
+      </c>
+      <c r="BK83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>5239136</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45115.45833333334</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>65</v>
+      </c>
+      <c r="H84" t="s">
+        <v>68</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84" t="s">
+        <v>80</v>
+      </c>
+      <c r="P84" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>10</v>
+      </c>
+      <c r="S84">
+        <v>11</v>
+      </c>
+      <c r="T84">
+        <v>2.1</v>
+      </c>
+      <c r="U84">
+        <v>2.25</v>
+      </c>
+      <c r="V84">
+        <v>6</v>
+      </c>
+      <c r="W84">
+        <v>1.4</v>
+      </c>
+      <c r="X84">
+        <v>2.75</v>
+      </c>
+      <c r="Y84">
+        <v>2.75</v>
+      </c>
+      <c r="Z84">
+        <v>1.4</v>
+      </c>
+      <c r="AA84">
+        <v>8</v>
+      </c>
+      <c r="AB84">
+        <v>1.08</v>
+      </c>
+      <c r="AC84">
+        <v>1.5</v>
+      </c>
+      <c r="AD84">
+        <v>4</v>
+      </c>
+      <c r="AE84">
+        <v>5.5</v>
+      </c>
+      <c r="AF84">
+        <v>1.04</v>
+      </c>
+      <c r="AG84">
+        <v>12</v>
+      </c>
+      <c r="AH84">
+        <v>1.27</v>
+      </c>
+      <c r="AI84">
+        <v>3.4</v>
+      </c>
+      <c r="AJ84">
+        <v>1.95</v>
+      </c>
+      <c r="AK84">
+        <v>1.86</v>
+      </c>
+      <c r="AL84">
+        <v>2</v>
+      </c>
+      <c r="AM84">
+        <v>1.75</v>
+      </c>
+      <c r="AN84">
+        <v>1.13</v>
+      </c>
+      <c r="AO84">
+        <v>1.23</v>
+      </c>
+      <c r="AP84">
+        <v>2.4</v>
+      </c>
+      <c r="AQ84">
+        <v>1.88</v>
+      </c>
+      <c r="AR84">
+        <v>0.17</v>
+      </c>
+      <c r="AS84">
+        <v>1.67</v>
+      </c>
+      <c r="AT84">
+        <v>0.57</v>
+      </c>
+      <c r="AU84">
+        <v>1.61</v>
+      </c>
+      <c r="AV84">
+        <v>1.36</v>
+      </c>
+      <c r="AW84">
+        <v>2.97</v>
+      </c>
+      <c r="AX84">
+        <v>1.31</v>
+      </c>
+      <c r="AY84">
+        <v>9.5</v>
+      </c>
+      <c r="AZ84">
+        <v>4.13</v>
+      </c>
+      <c r="BA84">
+        <v>1.23</v>
+      </c>
+      <c r="BB84">
+        <v>1.42</v>
+      </c>
+      <c r="BC84">
+        <v>1.7</v>
+      </c>
+      <c r="BD84">
+        <v>2.23</v>
+      </c>
+      <c r="BE84">
+        <v>3.05</v>
+      </c>
+      <c r="BF84">
+        <v>4</v>
+      </c>
+      <c r="BG84">
+        <v>5</v>
+      </c>
+      <c r="BH84">
+        <v>1</v>
+      </c>
+      <c r="BI84">
+        <v>6</v>
+      </c>
+      <c r="BJ84">
+        <v>5</v>
+      </c>
+      <c r="BK84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>5239137</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45115.45833333334</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>69</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>80</v>
+      </c>
+      <c r="P85" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q85">
+        <v>5</v>
+      </c>
+      <c r="R85">
+        <v>12</v>
+      </c>
+      <c r="S85">
+        <v>17</v>
+      </c>
+      <c r="T85">
+        <v>3.4</v>
+      </c>
+      <c r="U85">
+        <v>2.2</v>
+      </c>
+      <c r="V85">
+        <v>3.1</v>
+      </c>
+      <c r="W85">
+        <v>1.4</v>
+      </c>
+      <c r="X85">
+        <v>2.75</v>
+      </c>
+      <c r="Y85">
+        <v>2.75</v>
+      </c>
+      <c r="Z85">
+        <v>1.4</v>
+      </c>
+      <c r="AA85">
+        <v>8</v>
+      </c>
+      <c r="AB85">
+        <v>1.08</v>
+      </c>
+      <c r="AC85">
+        <v>3.1</v>
+      </c>
+      <c r="AD85">
+        <v>3.3</v>
+      </c>
+      <c r="AE85">
+        <v>2.2</v>
+      </c>
+      <c r="AF85">
+        <v>1.03</v>
+      </c>
+      <c r="AG85">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH85">
+        <v>1.32</v>
+      </c>
+      <c r="AI85">
+        <v>3.04</v>
+      </c>
+      <c r="AJ85">
+        <v>1.9</v>
+      </c>
+      <c r="AK85">
+        <v>1.79</v>
+      </c>
+      <c r="AL85">
+        <v>1.7</v>
+      </c>
+      <c r="AM85">
+        <v>2.05</v>
+      </c>
+      <c r="AN85">
+        <v>1.54</v>
+      </c>
+      <c r="AO85">
+        <v>1.33</v>
+      </c>
+      <c r="AP85">
+        <v>1.42</v>
+      </c>
+      <c r="AQ85">
+        <v>1.57</v>
+      </c>
+      <c r="AR85">
+        <v>0.83</v>
+      </c>
+      <c r="AS85">
+        <v>1.5</v>
+      </c>
+      <c r="AT85">
+        <v>0.86</v>
+      </c>
+      <c r="AU85">
+        <v>1.45</v>
+      </c>
+      <c r="AV85">
+        <v>1.3</v>
+      </c>
+      <c r="AW85">
+        <v>2.75</v>
+      </c>
+      <c r="AX85">
+        <v>1.91</v>
+      </c>
+      <c r="AY85">
+        <v>8</v>
+      </c>
+      <c r="AZ85">
+        <v>2.2</v>
+      </c>
+      <c r="BA85">
+        <v>1.2</v>
+      </c>
+      <c r="BB85">
+        <v>1.38</v>
+      </c>
+      <c r="BC85">
+        <v>1.67</v>
+      </c>
+      <c r="BD85">
+        <v>2.1</v>
+      </c>
+      <c r="BE85">
+        <v>2.85</v>
+      </c>
+      <c r="BF85">
+        <v>3</v>
+      </c>
+      <c r="BG85">
+        <v>7</v>
+      </c>
+      <c r="BH85">
+        <v>9</v>
+      </c>
+      <c r="BI85">
+        <v>5</v>
+      </c>
+      <c r="BJ85">
+        <v>12</v>
+      </c>
+      <c r="BK85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:63">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>5239138</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45115.45833333334</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="G86" t="s">
+        <v>66</v>
+      </c>
+      <c r="H86" t="s">
+        <v>73</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>133</v>
+      </c>
+      <c r="P86" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q86">
+        <v>4</v>
+      </c>
+      <c r="R86">
+        <v>4</v>
+      </c>
+      <c r="S86">
+        <v>8</v>
+      </c>
+      <c r="T86">
+        <v>3.2</v>
+      </c>
+      <c r="U86">
+        <v>1.95</v>
+      </c>
+      <c r="V86">
+        <v>4</v>
+      </c>
+      <c r="W86">
+        <v>1.53</v>
+      </c>
+      <c r="X86">
+        <v>2.38</v>
+      </c>
+      <c r="Y86">
+        <v>3.75</v>
+      </c>
+      <c r="Z86">
+        <v>1.25</v>
+      </c>
+      <c r="AA86">
+        <v>11</v>
+      </c>
+      <c r="AB86">
+        <v>1.05</v>
+      </c>
+      <c r="AC86">
+        <v>2.4</v>
+      </c>
+      <c r="AD86">
+        <v>3.25</v>
+      </c>
+      <c r="AE86">
+        <v>2.8</v>
+      </c>
+      <c r="AF86">
+        <v>1.1</v>
+      </c>
+      <c r="AG86">
+        <v>7</v>
+      </c>
+      <c r="AH86">
+        <v>1.52</v>
+      </c>
+      <c r="AI86">
+        <v>2.6</v>
+      </c>
+      <c r="AJ86">
+        <v>2.26</v>
+      </c>
+      <c r="AK86">
+        <v>1.55</v>
+      </c>
+      <c r="AL86">
+        <v>2.05</v>
+      </c>
+      <c r="AM86">
+        <v>1.7</v>
+      </c>
+      <c r="AN86">
+        <v>1.35</v>
+      </c>
+      <c r="AO86">
+        <v>1.36</v>
+      </c>
+      <c r="AP86">
+        <v>1.53</v>
+      </c>
+      <c r="AQ86">
+        <v>2.29</v>
+      </c>
+      <c r="AR86">
+        <v>1.29</v>
+      </c>
+      <c r="AS86">
+        <v>2.38</v>
+      </c>
+      <c r="AT86">
+        <v>1.13</v>
+      </c>
+      <c r="AU86">
+        <v>1.61</v>
+      </c>
+      <c r="AV86">
+        <v>1.25</v>
+      </c>
+      <c r="AW86">
+        <v>2.86</v>
+      </c>
+      <c r="AX86">
+        <v>1.64</v>
+      </c>
+      <c r="AY86">
+        <v>8.5</v>
+      </c>
+      <c r="AZ86">
+        <v>2.66</v>
+      </c>
+      <c r="BA86">
+        <v>1.17</v>
+      </c>
+      <c r="BB86">
+        <v>1.3</v>
+      </c>
+      <c r="BC86">
+        <v>1.56</v>
+      </c>
+      <c r="BD86">
+        <v>1.9</v>
+      </c>
+      <c r="BE86">
+        <v>2.55</v>
+      </c>
+      <c r="BF86">
+        <v>4</v>
+      </c>
+      <c r="BG86">
+        <v>2</v>
+      </c>
+      <c r="BH86">
+        <v>4</v>
+      </c>
+      <c r="BI86">
+        <v>8</v>
+      </c>
+      <c r="BJ86">
+        <v>8</v>
+      </c>
+      <c r="BK86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:63">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>5239139</v>
+      </c>
+      <c r="C87" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45115.45833333334</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" t="s">
+        <v>76</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>134</v>
+      </c>
+      <c r="P87" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q87">
+        <v>7</v>
+      </c>
+      <c r="R87">
+        <v>7</v>
+      </c>
+      <c r="S87">
+        <v>14</v>
+      </c>
+      <c r="T87">
+        <v>3.5</v>
+      </c>
+      <c r="U87">
+        <v>2.1</v>
+      </c>
+      <c r="V87">
+        <v>3</v>
+      </c>
+      <c r="W87">
+        <v>1.4</v>
+      </c>
+      <c r="X87">
+        <v>2.75</v>
+      </c>
+      <c r="Y87">
+        <v>3</v>
+      </c>
+      <c r="Z87">
+        <v>1.36</v>
+      </c>
+      <c r="AA87">
+        <v>8</v>
+      </c>
+      <c r="AB87">
+        <v>1.08</v>
+      </c>
+      <c r="AC87">
+        <v>3.05</v>
+      </c>
+      <c r="AD87">
+        <v>3.4</v>
+      </c>
+      <c r="AE87">
+        <v>2.11</v>
+      </c>
+      <c r="AF87">
+        <v>1.04</v>
+      </c>
+      <c r="AG87">
+        <v>11</v>
+      </c>
+      <c r="AH87">
+        <v>1.28</v>
+      </c>
+      <c r="AI87">
+        <v>3.3</v>
+      </c>
+      <c r="AJ87">
+        <v>2</v>
+      </c>
+      <c r="AK87">
+        <v>1.67</v>
+      </c>
+      <c r="AL87">
+        <v>1.75</v>
+      </c>
+      <c r="AM87">
+        <v>2</v>
+      </c>
+      <c r="AN87">
+        <v>1.55</v>
+      </c>
+      <c r="AO87">
+        <v>1.3</v>
+      </c>
+      <c r="AP87">
+        <v>1.4</v>
+      </c>
+      <c r="AQ87">
+        <v>1.33</v>
+      </c>
+      <c r="AR87">
+        <v>0.67</v>
+      </c>
+      <c r="AS87">
+        <v>1.29</v>
+      </c>
+      <c r="AT87">
+        <v>0.71</v>
+      </c>
+      <c r="AU87">
+        <v>1.35</v>
+      </c>
+      <c r="AV87">
+        <v>1.36</v>
+      </c>
+      <c r="AW87">
+        <v>2.71</v>
+      </c>
+      <c r="AX87">
+        <v>2.62</v>
+      </c>
+      <c r="AY87">
+        <v>8.5</v>
+      </c>
+      <c r="AZ87">
+        <v>1.69</v>
+      </c>
+      <c r="BA87">
+        <v>1.18</v>
+      </c>
+      <c r="BB87">
+        <v>1.34</v>
+      </c>
+      <c r="BC87">
+        <v>1.6</v>
+      </c>
+      <c r="BD87">
+        <v>2</v>
+      </c>
+      <c r="BE87">
+        <v>2.65</v>
+      </c>
+      <c r="BF87">
+        <v>6</v>
+      </c>
+      <c r="BG87">
+        <v>4</v>
+      </c>
+      <c r="BH87">
+        <v>6</v>
+      </c>
+      <c r="BI87">
+        <v>8</v>
+      </c>
+      <c r="BJ87">
+        <v>12</v>
+      </c>
+      <c r="BK87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:63">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>5239140</v>
+      </c>
+      <c r="C88" t="s">
+        <v>63</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45116.52083333334</v>
+      </c>
+      <c r="F88">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H88" t="s">
+        <v>74</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>135</v>
+      </c>
+      <c r="P88" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <v>8</v>
+      </c>
+      <c r="S88">
+        <v>9</v>
+      </c>
+      <c r="T88">
+        <v>3.6</v>
+      </c>
+      <c r="U88">
+        <v>2.2</v>
+      </c>
+      <c r="V88">
+        <v>2.88</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>2.75</v>
+      </c>
+      <c r="Y88">
+        <v>2.75</v>
+      </c>
+      <c r="Z88">
+        <v>1.4</v>
+      </c>
+      <c r="AA88">
+        <v>8</v>
+      </c>
+      <c r="AB88">
+        <v>1.08</v>
+      </c>
+      <c r="AC88">
+        <v>3.3</v>
+      </c>
+      <c r="AD88">
+        <v>3.5</v>
+      </c>
+      <c r="AE88">
+        <v>2.22</v>
+      </c>
+      <c r="AF88">
+        <v>1.06</v>
+      </c>
+      <c r="AG88">
+        <v>11</v>
+      </c>
+      <c r="AH88">
+        <v>1.32</v>
+      </c>
+      <c r="AI88">
+        <v>3.42</v>
+      </c>
+      <c r="AJ88">
+        <v>2.05</v>
+      </c>
+      <c r="AK88">
+        <v>1.61</v>
+      </c>
+      <c r="AL88">
+        <v>1.75</v>
+      </c>
+      <c r="AM88">
+        <v>2</v>
+      </c>
+      <c r="AN88">
+        <v>1.57</v>
+      </c>
+      <c r="AO88">
+        <v>1.29</v>
+      </c>
+      <c r="AP88">
+        <v>1.32</v>
+      </c>
+      <c r="AQ88">
+        <v>0.86</v>
+      </c>
+      <c r="AR88">
+        <v>2</v>
+      </c>
+      <c r="AS88">
+        <v>0.75</v>
+      </c>
+      <c r="AT88">
+        <v>2.13</v>
+      </c>
+      <c r="AU88">
+        <v>1.26</v>
+      </c>
+      <c r="AV88">
+        <v>1.33</v>
+      </c>
+      <c r="AW88">
+        <v>2.59</v>
+      </c>
+      <c r="AX88">
+        <v>1.8</v>
+      </c>
+      <c r="AY88">
+        <v>5.5</v>
+      </c>
+      <c r="AZ88">
+        <v>2.3</v>
+      </c>
+      <c r="BA88">
+        <v>1.18</v>
+      </c>
+      <c r="BB88">
+        <v>1.28</v>
+      </c>
+      <c r="BC88">
+        <v>1.51</v>
+      </c>
+      <c r="BD88">
+        <v>1.9</v>
+      </c>
+      <c r="BE88">
+        <v>2.45</v>
+      </c>
+      <c r="BF88">
+        <v>5</v>
+      </c>
+      <c r="BG88">
+        <v>8</v>
+      </c>
+      <c r="BH88">
+        <v>2</v>
+      </c>
+      <c r="BI88">
+        <v>5</v>
+      </c>
+      <c r="BJ88">
+        <v>7</v>
+      </c>
+      <c r="BK88">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
